--- a/exp/Sim_20241026.xlsx
+++ b/exp/Sim_20241026.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DDB12A-3391-9646-A1B9-09F40A9573A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F17AB-EF32-EE47-9E94-F1AB35A6F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="8380" windowWidth="28800" windowHeight="13240" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" activeTab="4" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="MogulGPU" sheetId="1" r:id="rId1"/>
+    <sheet name="Dataset" sheetId="4" r:id="rId1"/>
+    <sheet name="MogulGPU" sheetId="1" r:id="rId2"/>
+    <sheet name="yelp2018" sheetId="2" r:id="rId3"/>
+    <sheet name="gowalla" sheetId="3" r:id="rId4"/>
+    <sheet name="LightGCNvsReplica" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
   <si>
     <t>Paper value</t>
   </si>
@@ -75,16 +79,185 @@
   </si>
   <si>
     <t>Num of epochs</t>
+  </si>
+  <si>
+    <t>ndcg</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>original LightGCN</t>
+  </si>
+  <si>
+    <t>hyperGCN (u-20, i-30, no-shuffle)</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>num of ep</t>
+  </si>
+  <si>
+    <t>320+160</t>
+  </si>
+  <si>
+    <t>i_K</t>
+  </si>
+  <si>
+    <t>u_K</t>
+  </si>
+  <si>
+    <t>ep_max</t>
+  </si>
+  <si>
+    <t>hyperGCN (no-shuffle)</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t># of Users</t>
+  </si>
+  <si>
+    <t># of Items</t>
+  </si>
+  <si>
+    <t># of ratings</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Sparisity</t>
+  </si>
+  <si>
+    <t># of Edges</t>
+  </si>
+  <si>
+    <t># of Nodes</t>
+  </si>
+  <si>
+    <t>Avg Node Degree</t>
+  </si>
+  <si>
+    <t>Graph Density</t>
+  </si>
+  <si>
+    <t>Time distance</t>
+  </si>
+  <si>
+    <t>ml100k</t>
+  </si>
+  <si>
+    <t>douban-music</t>
+  </si>
+  <si>
+    <t>ml1m</t>
+  </si>
+  <si>
+    <t>yelp2018</t>
+  </si>
+  <si>
+    <t>epinion</t>
+  </si>
+  <si>
+    <t>gowalla</t>
+  </si>
+  <si>
+    <t>douban-book</t>
+  </si>
+  <si>
+    <t>amazon-book</t>
+  </si>
+  <si>
+    <t>douban-movie</t>
+  </si>
+  <si>
+    <t>amazon-fashion</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>i per u</t>
+  </si>
+  <si>
+    <t>u per i</t>
+  </si>
+  <si>
+    <t>my LightGCN</t>
+  </si>
+  <si>
+    <t>#Edges for training</t>
+  </si>
+  <si>
+    <t>lastfm</t>
+  </si>
+  <si>
+    <t>GoWalla</t>
+  </si>
+  <si>
+    <t>{'precision': array([0.05451135]), 'recall': array([0.17737686]), 'ndcg': array([0.15152158])}</t>
+  </si>
+  <si>
+    <t>at 915</t>
+  </si>
+  <si>
+    <t>python main.py --decay=1e-4 --lr=0.001 --layer=2 --seed=2020 --dataset="gowalla" --topks="[20]" --recdim=64 </t>
+  </si>
+  <si>
+    <t>LightGCN</t>
+  </si>
+  <si>
+    <t>Replicated</t>
+  </si>
+  <si>
+    <t>{'precision': array([0.07728741]), 'recall': array([0.27592134]), 'ndcg': array([0.21309075])}</t>
+  </si>
+  <si>
+    <t>python main.py --decay=1e-2 --lr=0.001 --layer=1 --seed=2020 --dataset="lastfm" --topks="[20]" --recdim=64 --epochs=1000 --bpr_batch=1024</t>
+  </si>
+  <si>
+    <t>{'precision': array([0.07465016]), 'recall': array([0.26823234]), 'ndcg': array([0.20917612])}</t>
+  </si>
+  <si>
+    <t>lastfm (batch_size=1024)</t>
+  </si>
+  <si>
+    <t>{'precision': array([0.07833692]), 'recall': array([0.27932295]), 'ndcg': array([0.21850259])}</t>
+  </si>
+  <si>
+    <t>{'precision': array([0.07855221]), 'recall': array([0.27901291]), 'ndcg': array([0.21937955])}</t>
+  </si>
+  <si>
+    <t>{'precision': array([0.07796017]), 'recall': array([0.27572845]), 'ndcg': array([0.21620321])}</t>
+  </si>
+  <si>
+    <t>{'precision': array([0.05456996]), 'recall': array([0.17746077]), 'ndcg': array([0.15158685])}</t>
+  </si>
+  <si>
+    <t>python main.py --decay=1e-4 --lr=0.001 --layer=2 --seed=2020 --dataset="gowalla" --topks="[20]" --recdim=64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="8">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0000%"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,8 +285,56 @@
       <name val="Menlo"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,8 +347,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -213,11 +452,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -229,27 +490,108 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -580,207 +922,2488 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4227896D-BE1A-B249-BC5D-D805EF240247}">
+  <dimension ref="D4:Q25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="16.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1682</v>
+      </c>
+      <c r="F5" s="23">
+        <v>943</v>
+      </c>
+      <c r="G5" s="23">
+        <v>100000</v>
+      </c>
+      <c r="H5" s="24">
+        <f>G5/(E5*F5)</f>
+        <v>6.3046693642245313E-2</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" ref="I5:I9" si="0">100%-H5</f>
+        <v>0.93695330635775465</v>
+      </c>
+      <c r="J5" s="26">
+        <f>G5*2</f>
+        <v>200000</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26">
+        <f>E5+F5</f>
+        <v>2625</v>
+      </c>
+      <c r="M5" s="27">
+        <f>J5/L5</f>
+        <v>76.19047619047619</v>
+      </c>
+      <c r="N5" s="28">
+        <f>J5/(L5*(L5-1))</f>
+        <v>2.9036004645760744E-2</v>
+      </c>
+      <c r="O5" s="29"/>
+    </row>
+    <row r="6" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="23">
+        <v>3952</v>
+      </c>
+      <c r="F6" s="23">
+        <v>6040</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1000209</v>
+      </c>
+      <c r="H6" s="24">
+        <f>G6/(E6*F6)</f>
+        <v>4.1902205606349038E-2</v>
+      </c>
+      <c r="I6" s="25">
+        <f>100%-H6</f>
+        <v>0.95809779439365095</v>
+      </c>
+      <c r="J6" s="26">
+        <f>G6*2</f>
+        <v>2000418</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26">
+        <f>E6+F6</f>
+        <v>9992</v>
+      </c>
+      <c r="M6" s="27">
+        <f>J6/L6</f>
+        <v>200.20196156925542</v>
+      </c>
+      <c r="N6" s="28">
+        <f>J6/(L6*(L6-1))</f>
+        <v>2.0038230564433532E-2</v>
+      </c>
+      <c r="O6" s="29"/>
+    </row>
+    <row r="7" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1403</v>
+      </c>
+      <c r="F7" s="23">
+        <v>94651</v>
+      </c>
+      <c r="G7" s="23">
+        <v>221195</v>
+      </c>
+      <c r="H7" s="30">
+        <f>G7/(E7*F7)</f>
+        <v>1.6656832863722272E-3</v>
+      </c>
+      <c r="I7" s="25">
+        <f>100%-H7</f>
+        <v>0.99833431671362782</v>
+      </c>
+      <c r="J7" s="26">
+        <f>G7*2</f>
+        <v>442390</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26">
+        <f>E7+F7</f>
+        <v>96054</v>
+      </c>
+      <c r="M7" s="27">
+        <f>J7/L7</f>
+        <v>4.6056384950132214</v>
+      </c>
+      <c r="N7" s="28">
+        <f>J7/(L7*(L7-1))</f>
+        <v>4.7948929185066803E-5</v>
+      </c>
+      <c r="O7" s="29">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+    </row>
+    <row r="9" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D9" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="23">
+        <v>10328</v>
+      </c>
+      <c r="F9" s="23">
+        <v>4764</v>
+      </c>
+      <c r="G9" s="23">
+        <v>200573</v>
+      </c>
+      <c r="H9" s="24">
+        <f>G9/(E9*F9)</f>
+        <v>4.0764722313816311E-3</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.99592352776861837</v>
+      </c>
+      <c r="J9" s="26">
+        <f>G9*2</f>
+        <v>401146</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26">
+        <f>E9+F9</f>
+        <v>15092</v>
+      </c>
+      <c r="M9" s="27">
+        <f>J9/L9</f>
+        <v>26.580042406573018</v>
+      </c>
+      <c r="N9" s="28">
+        <f>J9/(L9*(L9-1))</f>
+        <v>1.7613175009325438E-3</v>
+      </c>
+      <c r="O9" s="29">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="23">
+        <v>879</v>
+      </c>
+      <c r="F10" s="23">
+        <v>677</v>
+      </c>
+      <c r="G10" s="23">
+        <v>32374</v>
+      </c>
+      <c r="H10" s="24">
+        <f>G10/(E10*F10)</f>
+        <v>5.4402495114126939E-2</v>
+      </c>
+      <c r="I10" s="25">
+        <f>100%-H10</f>
+        <v>0.94559750488587302</v>
+      </c>
+      <c r="J10" s="31">
+        <f>G10*2</f>
+        <v>64748</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="26">
+        <f>E10+F10</f>
+        <v>1556</v>
+      </c>
+      <c r="M10" s="27">
+        <f>J10/L10</f>
+        <v>41.611825192802058</v>
+      </c>
+      <c r="N10" s="28">
+        <f>J10/(L10*(L10-1))</f>
+        <v>2.6760016201158879E-2</v>
+      </c>
+      <c r="O10" s="29">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="23">
+        <v>2519</v>
+      </c>
+      <c r="F11" s="23">
+        <v>34889</v>
+      </c>
+      <c r="G11" s="23">
+        <v>1276928</v>
+      </c>
+      <c r="H11" s="30">
+        <f>G11/(E11*F11)</f>
+        <v>1.4529468270784617E-2</v>
+      </c>
+      <c r="I11" s="25">
+        <f>100%-H11</f>
+        <v>0.98547053172921539</v>
+      </c>
+      <c r="J11" s="26">
+        <f>G11*2</f>
+        <v>2553856</v>
+      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26">
+        <f>E11+F11</f>
+        <v>37408</v>
+      </c>
+      <c r="M11" s="27">
+        <f>J11/L11</f>
+        <v>68.270316509837471</v>
+      </c>
+      <c r="N11" s="28">
+        <f>J11/(L11*(L11-1))</f>
+        <v>1.8250679420920542E-3</v>
+      </c>
+      <c r="O11" s="29">
+        <v>4769</v>
+      </c>
+    </row>
+    <row r="12" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D12" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2035490</v>
+      </c>
+      <c r="F12" s="23">
+        <v>874297</v>
+      </c>
+      <c r="G12" s="23">
+        <v>2500939</v>
+      </c>
+      <c r="H12" s="28">
+        <f>G12/(E12*F12)</f>
+        <v>1.405319711151813E-6</v>
+      </c>
+      <c r="I12" s="25">
+        <f>100%-H12</f>
+        <v>0.99999859468028884</v>
+      </c>
+      <c r="J12" s="26">
+        <f>G12*2</f>
+        <v>5001878</v>
+      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26">
+        <f>E12+F12</f>
+        <v>2909787</v>
+      </c>
+      <c r="M12" s="27">
+        <f>J12/L12</f>
+        <v>1.7189842418018912</v>
+      </c>
+      <c r="N12" s="28">
+        <f>J12/(L12*(L12-1))</f>
+        <v>5.9075967847872362E-7</v>
+      </c>
+      <c r="O12" s="29">
+        <v>7797</v>
+      </c>
+    </row>
+    <row r="13" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D13" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="23">
+        <v>44783</v>
+      </c>
+      <c r="F13" s="23">
+        <v>1020</v>
+      </c>
+      <c r="G13" s="23">
+        <v>99892</v>
+      </c>
+      <c r="H13" s="32">
+        <f>G13/(E13*F13)</f>
+        <v>2.1868417330981249E-3</v>
+      </c>
+      <c r="I13" s="25">
+        <f>100%-H13</f>
+        <v>0.99781315826690187</v>
+      </c>
+      <c r="J13" s="26">
+        <f>G13*2</f>
+        <v>199784</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26">
+        <f>E13+F13</f>
+        <v>45803</v>
+      </c>
+      <c r="M13" s="27">
+        <f>J13/L13</f>
+        <v>4.3618103617666968</v>
+      </c>
+      <c r="N13" s="28">
+        <f>J13/(L13*(L13-1))</f>
+        <v>9.523187550252601E-5</v>
+      </c>
+      <c r="O13" s="29"/>
+    </row>
+    <row r="14" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+    </row>
+    <row r="15" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="23">
+        <v>29858</v>
+      </c>
+      <c r="F15" s="23">
+        <v>40981</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1027370</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="31">
+        <f>G15*2</f>
+        <v>2054740</v>
+      </c>
+      <c r="K15" s="26">
+        <v>1620256</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+    </row>
+    <row r="16" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="23">
+        <v>29858</v>
+      </c>
+      <c r="F16" s="23">
+        <v>40981</v>
+      </c>
+      <c r="G16" s="23">
+        <v>1027370</v>
+      </c>
+      <c r="H16" s="32">
+        <f>G16/(E16*F16)</f>
+        <v>8.3962162285704375E-4</v>
+      </c>
+      <c r="I16" s="25">
+        <f>100%-H16</f>
+        <v>0.999160378377143</v>
+      </c>
+      <c r="J16" s="26">
+        <f>G16*2</f>
+        <v>2054740</v>
+      </c>
+      <c r="K16" s="26">
+        <f>J16*80%</f>
+        <v>1643792</v>
+      </c>
+      <c r="L16" s="26">
+        <f>E16+F16</f>
+        <v>70839</v>
+      </c>
+      <c r="M16" s="27">
+        <f>J16/L16</f>
+        <v>29.005773655754599</v>
+      </c>
+      <c r="N16" s="28">
+        <f>J16/(L16*(L16-1))</f>
+        <v>4.094662985368672E-4</v>
+      </c>
+      <c r="O16" s="29"/>
+      <c r="P16" s="27">
+        <f>G16/E16</f>
+        <v>34.408533726304505</v>
+      </c>
+      <c r="Q16" s="27">
+        <f>G16/F16</f>
+        <v>25.06942241526561</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D17" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="23">
+        <v>31668</v>
+      </c>
+      <c r="F17" s="23">
+        <v>38048</v>
+      </c>
+      <c r="G17" s="23">
+        <v>1561406</v>
+      </c>
+      <c r="H17" s="32">
+        <f>G17/(E17*F17)</f>
+        <v>1.2958757851778645E-3</v>
+      </c>
+      <c r="I17" s="25">
+        <f>100%-H17</f>
+        <v>0.99870412421482213</v>
+      </c>
+      <c r="J17" s="26">
+        <f>G17*2</f>
+        <v>3122812</v>
+      </c>
+      <c r="K17" s="26">
+        <f>J17*80%</f>
+        <v>2498249.6</v>
+      </c>
+      <c r="L17" s="26">
+        <f>E17+F17</f>
+        <v>69716</v>
+      </c>
+      <c r="M17" s="27">
+        <f>J17/L17</f>
+        <v>44.793332950829075</v>
+      </c>
+      <c r="N17" s="28">
+        <f>J17/(L17*(L17-1))</f>
+        <v>6.4252073371339131E-4</v>
+      </c>
+      <c r="O17" s="29"/>
+      <c r="P17" s="27">
+        <f>G17/E17</f>
+        <v>49.305481874447395</v>
+      </c>
+      <c r="Q17" s="27">
+        <f>G17/F17</f>
+        <v>41.037794365012616</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="23">
+        <v>52643</v>
+      </c>
+      <c r="F18" s="23">
+        <v>91599</v>
+      </c>
+      <c r="G18" s="23">
+        <v>2984108</v>
+      </c>
+      <c r="H18" s="32">
+        <f>G18/(E18*F18)</f>
+        <v>6.1884683448499807E-4</v>
+      </c>
+      <c r="I18" s="25">
+        <f>100%-H18</f>
+        <v>0.99938115316551501</v>
+      </c>
+      <c r="J18" s="26">
+        <f>G18*2</f>
+        <v>5968216</v>
+      </c>
+      <c r="K18" s="26">
+        <f>J18*80%</f>
+        <v>4774572.8</v>
+      </c>
+      <c r="L18" s="26">
+        <f>E18+F18</f>
+        <v>144242</v>
+      </c>
+      <c r="M18" s="27">
+        <f>J18/L18</f>
+        <v>41.376409090278834</v>
+      </c>
+      <c r="N18" s="28">
+        <f>J18/(L18*(L18-1))</f>
+        <v>2.8685608870070812E-4</v>
+      </c>
+      <c r="O18" s="29"/>
+      <c r="P18" s="27">
+        <f>G18/E18</f>
+        <v>56.685751191991336</v>
+      </c>
+      <c r="Q18" s="27">
+        <f>G18/F18</f>
+        <v>32.577953907793756</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1878</v>
+      </c>
+      <c r="F23" s="23">
+        <v>4476</v>
+      </c>
+      <c r="G23" s="23">
+        <f>G24+G25</f>
+        <v>52668</v>
+      </c>
+      <c r="H23" s="32">
+        <f>G23/(E23*F23)</f>
+        <v>6.265578291891151E-3</v>
+      </c>
+      <c r="I23" s="25">
+        <f>100%-H23</f>
+        <v>0.99373442170810888</v>
+      </c>
+      <c r="J23" s="26">
+        <f>G23*2</f>
+        <v>105336</v>
+      </c>
+      <c r="K23" s="26">
+        <f>J23*80%</f>
+        <v>84268.800000000003</v>
+      </c>
+      <c r="L23" s="26">
+        <f>E23+F23</f>
+        <v>6354</v>
+      </c>
+      <c r="M23" s="27">
+        <f>J23/L23</f>
+        <v>16.577903682719548</v>
+      </c>
+      <c r="N23" s="28">
+        <f>J23/(L23*(L23-1))</f>
+        <v>2.6094606772736578E-3</v>
+      </c>
+      <c r="O23" s="29"/>
+      <c r="P23" s="27">
+        <f>G23/E23</f>
+        <v>28.044728434504794</v>
+      </c>
+      <c r="Q23" s="27">
+        <f>G23/F23</f>
+        <v>11.766756032171582</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>10533</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>42135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917CA5BC-A1D0-F548-BBB7-C5C019C6DEDF}">
-  <dimension ref="C2:X5"/>
+  <dimension ref="C2:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="C2" s="9" t="s">
+    <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
+      <c r="C2" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+    </row>
+    <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="C4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="9" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="9" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="9" t="s">
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="11"/>
-    </row>
-    <row r="3" spans="3:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+    </row>
+    <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="13">
+    <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="C6" s="50">
         <v>1000</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D6" s="54">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F6" s="54">
         <v>0.1492</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G6" s="7">
         <v>0.14094999999999999</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H6" s="8">
         <v>921</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="13">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="54">
         <v>0.17549999999999999</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N6" s="1">
         <v>0.16819999999999999</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="13">
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="54">
         <v>0.17549999999999999</v>
       </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="3:24" ht="19" x14ac:dyDescent="0.25">
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="3">
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="C7" s="51"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="7">
+      <c r="F7" s="54"/>
+      <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H7" s="8">
         <v>891</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I7" s="7">
         <v>0.14749999999999999</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J7" s="8">
         <v>570</v>
       </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="7">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O7" s="7">
         <v>0.17269999999999999</v>
       </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7">
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="U5" s="2"/>
-      <c r="X5" s="6" t="s">
+      <c r="U7" s="2"/>
+      <c r="X7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
+      <c r="C8" s="52"/>
+      <c r="D8" s="34">
+        <v>2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="F8" s="35">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.1515</v>
+      </c>
+      <c r="H8" s="8">
+        <v>915</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="35">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.1774</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="35">
+        <v>5.1060000000000001E-2</v>
+      </c>
+      <c r="S8" s="7">
+        <v>5.4510000000000003E-2</v>
+      </c>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="X8" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="X13" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y13" s="47"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="47"/>
+      <c r="AB13" s="48"/>
+    </row>
+    <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="X14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="X15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>0.17269999999999999</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="AB15" s="11">
+        <f>(2*Y15*AA15)/(Y15+AA15)</f>
+        <v>8.1692749778956672E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="X16" s="10">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="9" t="e">
+        <f>(2*Y16*AA16)/(Y16+AA16)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="X17" s="10">
+        <v>3</v>
+      </c>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="9" t="e">
+        <f>(2*Y17*AA17)/(Y17+AA17)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="C18" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48"/>
+      <c r="X18" s="10">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="11" t="e">
+        <f>(2*Y18*AA18)/(Y18+AA18)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="C19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="C20" s="10">
+        <v>1</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.16869999999999999</v>
+      </c>
+      <c r="E20" s="9">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="F20" s="9">
+        <v>5.1060000000000001E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <f>(2*D20*F20)/(D20+F20)</f>
+        <v>7.839299235529669E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="C21" s="10">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="E21" s="9">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="F21" s="11">
+        <v>5.4559999999999997E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <f>(2*D21*F21)/(D21+F21)</f>
+        <v>8.3585657917309999E-2</v>
+      </c>
+      <c r="J21" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+    </row>
+    <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="C22" s="10">
+        <v>3</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.1547</v>
+      </c>
+      <c r="F22" s="11">
+        <v>5.5890000000000002E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <f>(2*D22*F22)/(D22+F22)</f>
+        <v>8.5562432330353766E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" ht="22" x14ac:dyDescent="0.3">
+      <c r="C23" s="10">
+        <v>4</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.1825</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.1537</v>
+      </c>
+      <c r="F23" s="9">
+        <v>5.5759999999999997E-2</v>
+      </c>
+      <c r="G23" s="11">
+        <f>(2*D23*F23)/(D23+F23)</f>
+        <v>8.5420968689666754E-2</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="M4:M5"/>
+  <mergeCells count="13">
+    <mergeCell ref="C2:U2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J21:T21"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="X13:AB13"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="M4:P4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="M6:M7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
+  <dimension ref="E9:X37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="5:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="E9" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="48"/>
+      <c r="K9" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" spans="5:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="E10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="5:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5.604E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>4.5569999999999999E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2.5190000000000001E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <f>(2*F11*H11)/(F11+H11)</f>
+        <v>3.4756804136402808E-2</v>
+      </c>
+      <c r="K11" s="10">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M11" s="9">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2.75E-2</v>
+      </c>
+      <c r="O11" s="9">
+        <f>(2*L11*N11)/(L11+N11)</f>
+        <v>3.6211180124223599E-2</v>
+      </c>
+      <c r="P11" s="9">
+        <v>321</v>
+      </c>
+      <c r="R11" s="14">
+        <f>O11-I11</f>
+        <v>1.4543759878207912E-3</v>
+      </c>
+      <c r="S11" s="15">
+        <f>R11/I11</f>
+        <v>4.1844353183713441E-2</v>
+      </c>
+      <c r="T11" s="14">
+        <f>M11-G11</f>
+        <v>7.3000000000000148E-4</v>
+      </c>
+      <c r="U11" s="16">
+        <f>T11/G11</f>
+        <v>1.601931095018656E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5.9880000000000003E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>4.956E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <f>(2*F12*H12)/(F12+H12)</f>
+        <v>3.7313129455047139E-2</v>
+      </c>
+      <c r="K12" s="10">
+        <v>2</v>
+      </c>
+      <c r="L12" s="9">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="M12" s="9">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="N12" s="9">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="O12" s="9">
+        <f>(2*L12*N12)/(L12+N12)</f>
+        <v>3.7434813925570229E-2</v>
+      </c>
+      <c r="P12" s="9">
+        <v>642</v>
+      </c>
+      <c r="Q12" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="13"/>
+    </row>
+    <row r="13" spans="5:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="E13" s="10">
+        <v>3</v>
+      </c>
+      <c r="F13" s="9">
+        <v>6.3469999999999999E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5.2380000000000003E-2</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <f>(2*F13*H13)/(F13+H13)</f>
+        <v>3.933663151027509E-2</v>
+      </c>
+      <c r="K13" s="10">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="5:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="E14" s="10">
+        <v>4</v>
+      </c>
+      <c r="F14" s="9">
+        <v>6.515E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5.3249999999999999E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>2.9170000000000001E-2</v>
+      </c>
+      <c r="I14" s="11">
+        <f>(2*F14*H14)/(F14+H14)</f>
+        <v>4.0297402459711619E-2</v>
+      </c>
+      <c r="K14" s="10">
+        <v>4</v>
+      </c>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="18" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K18" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="48"/>
+    </row>
+    <row r="19" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K20" s="10">
+        <v>1</v>
+      </c>
+      <c r="L20" s="9">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="M20" s="9">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="N20" s="9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" ref="O20:O26" si="0">(2*L20*N20)/(L20+N20)</f>
+        <v>3.5520912547528517E-2</v>
+      </c>
+      <c r="P20" s="9">
+        <v>321</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>15</v>
+      </c>
+      <c r="R20" s="9">
+        <v>30</v>
+      </c>
+      <c r="S20" s="9">
+        <v>160</v>
+      </c>
+      <c r="T20" s="18"/>
+    </row>
+    <row r="21" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="M21" s="9">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="N21" s="9">
+        <v>2.75E-2</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6211180124223599E-2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>321</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>20</v>
+      </c>
+      <c r="R21" s="9">
+        <v>30</v>
+      </c>
+      <c r="S21" s="9">
+        <v>321</v>
+      </c>
+      <c r="T21" s="18"/>
+    </row>
+    <row r="22" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K22" s="10">
+        <v>1</v>
+      </c>
+      <c r="L22" s="9">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="M22" s="9">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="N22" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6924574209245747E-2</v>
+      </c>
+      <c r="P22" s="9">
+        <v>321</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>35</v>
+      </c>
+      <c r="R22" s="9">
+        <v>30</v>
+      </c>
+      <c r="S22" s="9">
+        <v>240</v>
+      </c>
+      <c r="U22">
+        <f>M22-G11</f>
+        <v>1.6299999999999995E-3</v>
+      </c>
+      <c r="V22" s="20">
+        <f>U22/G11</f>
+        <v>3.5769146368224695E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K23" s="10">
+        <v>1</v>
+      </c>
+      <c r="L23" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="M23" s="9">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="N23" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O23" s="9">
+        <f t="shared" si="0"/>
+        <v>3.6878048780487803E-2</v>
+      </c>
+      <c r="P23" s="9">
+        <v>321</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>45</v>
+      </c>
+      <c r="R23" s="9">
+        <v>30</v>
+      </c>
+      <c r="S23" s="9">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="24" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K24" s="19">
+        <v>1</v>
+      </c>
+      <c r="L24" s="17">
+        <v>5.4100000000000002E-2</v>
+      </c>
+      <c r="M24" s="17">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="N24" s="17">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="O24" s="17">
+        <f t="shared" si="0"/>
+        <v>3.690133982947625E-2</v>
+      </c>
+      <c r="P24" s="17">
+        <v>321</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>35</v>
+      </c>
+      <c r="R24" s="17">
+        <v>35</v>
+      </c>
+      <c r="S24" s="17">
+        <v>240</v>
+      </c>
+      <c r="U24">
+        <f>M24-G11</f>
+        <v>1.8299999999999983E-3</v>
+      </c>
+      <c r="V24" s="13">
+        <f>U24/G11</f>
+        <v>4.015799868334427E-2</v>
+      </c>
+      <c r="W24">
+        <f>O24-I11</f>
+        <v>2.1445356930734419E-3</v>
+      </c>
+      <c r="X24" s="20">
+        <f>W24/I11</f>
+        <v>6.1701176110934369E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K25" s="19">
+        <v>1</v>
+      </c>
+      <c r="L25" s="17">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="M25" s="17">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="N25" s="17">
+        <v>2.81E-2</v>
+      </c>
+      <c r="O25" s="17">
+        <f t="shared" si="0"/>
+        <v>3.7034708737864075E-2</v>
+      </c>
+      <c r="P25" s="17">
+        <v>321</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>35</v>
+      </c>
+      <c r="R25" s="17">
+        <v>45</v>
+      </c>
+      <c r="S25" s="17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K26" s="19">
+        <v>1</v>
+      </c>
+      <c r="L26" s="17">
+        <v>5.4199999999999998E-2</v>
+      </c>
+      <c r="M26" s="17">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="N26" s="17">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="O26" s="17">
+        <f t="shared" si="0"/>
+        <v>3.709805825242718E-2</v>
+      </c>
+      <c r="P26" s="17">
+        <v>321</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>35</v>
+      </c>
+      <c r="R26" s="17">
+        <v>55</v>
+      </c>
+      <c r="S26" s="17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K29" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="48"/>
+    </row>
+    <row r="30" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K31" s="10">
+        <v>2</v>
+      </c>
+      <c r="L31" s="9">
+        <v>5.57E-2</v>
+      </c>
+      <c r="M31" s="9">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="N31" s="9">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="O31" s="9">
+        <f>(2*L31*N31)/(L31+N31)</f>
+        <v>3.7968284023668641E-2</v>
+      </c>
+      <c r="P31" s="9">
+        <v>601</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>35</v>
+      </c>
+      <c r="R31" s="9">
+        <v>45</v>
+      </c>
+      <c r="S31" s="9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="32" spans="11:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="K32" s="10"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+    </row>
+    <row r="33" spans="11:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="K33" s="10"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+    </row>
+    <row r="34" spans="11:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="K34" s="10"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+    </row>
+    <row r="35" spans="11:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="K35" s="19"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+    </row>
+    <row r="36" spans="11:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="K36" s="19"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+    </row>
+    <row r="37" spans="11:19" ht="22" x14ac:dyDescent="0.3">
+      <c r="K37" s="19"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="K29:S29"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="K9:P9"/>
+    <mergeCell ref="K18:S18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724D8D53-7A34-BB42-8F20-CCA678AFF304}">
+  <dimension ref="D7:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="99" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D7" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.16869999999999999</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5.1060000000000001E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <f>(2*E9*G9)/(E9+G9)</f>
+        <v>7.839299235529669E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D10" s="10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5.4559999999999997E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <f>(2*E10*G10)/(E10+G10)</f>
+        <v>8.3585657917309999E-2</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D11" s="10">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.1547</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5.5890000000000002E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <f>(2*E11*G11)/(E11+G11)</f>
+        <v>8.5562432330353766E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D12" s="10">
+        <v>4</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.1825</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.1537</v>
+      </c>
+      <c r="G12" s="9">
+        <v>5.5759999999999997E-2</v>
+      </c>
+      <c r="H12" s="11">
+        <f>(2*E12*G12)/(E12+G12)</f>
+        <v>8.5420968689666754E-2</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D7:H7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9645EE3D-0953-4146-AB32-A8CD72D7280E}">
+  <dimension ref="E10:Q32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="5:16" ht="24" x14ac:dyDescent="0.3">
+      <c r="E10" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
+      <c r="P10" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="E11" s="42"/>
+      <c r="F11" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="5:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="5:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="37">
+        <v>0.16869999999999999</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="37">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="37">
+        <v>5.1060000000000001E-2</v>
+      </c>
+      <c r="K13" s="9"/>
+      <c r="L13" s="37">
+        <f>(2*F13*J13)/(F13+J13)</f>
+        <v>7.839299235529669E-2</v>
+      </c>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="5:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="37">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="37">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="38">
+        <v>5.4559999999999997E-2</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="37">
+        <f>(2*F14*J14)/(F14+J14)</f>
+        <v>8.3585657917309999E-2</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="P14" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="5:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="37">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="37">
+        <v>0.1547</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="38">
+        <v>5.5890000000000002E-2</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="37">
+        <f>(2*F15*J15)/(F15+J15)</f>
+        <v>8.5562432330353766E-2</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="5:16" ht="22" x14ac:dyDescent="0.3">
+      <c r="E16" s="10">
+        <v>4</v>
+      </c>
+      <c r="F16" s="37">
+        <v>0.1825</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="37">
+        <v>0.1537</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="37">
+        <v>5.5759999999999997E-2</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="38">
+        <f>(2*F16*J16)/(F16+J16)</f>
+        <v>8.5420968689666754E-2</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="18" spans="5:17" ht="24" x14ac:dyDescent="0.3">
+      <c r="E18" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="57"/>
+      <c r="P18" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E19" s="42"/>
+      <c r="F19" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N19" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="P20" s="39">
+        <v>0.01</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="37">
+        <v>0.27592</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="H21" s="41">
+        <v>0.21309</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="J21" s="37">
+        <v>7.7289999999999998E-2</v>
+      </c>
+      <c r="K21" s="9">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="L21" s="37">
+        <f t="shared" ref="L21:M24" si="0">(2*F21*J21)/(F21+J21)</f>
+        <v>0.12075454715325161</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="0"/>
+        <v>0.12075191815856777</v>
+      </c>
+      <c r="N21" s="44">
+        <v>0.01</v>
+      </c>
+      <c r="P21" s="39">
+        <v>1E-3</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E22" s="10">
+        <v>2</v>
+      </c>
+      <c r="F22" s="37">
+        <v>0.27932000000000001</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="H22" s="37">
+        <v>0.2185</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.2208</v>
+      </c>
+      <c r="J22" s="38">
+        <v>7.8340000000000007E-2</v>
+      </c>
+      <c r="K22" s="14">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="L22" s="37">
+        <f t="shared" si="0"/>
+        <v>0.12236162165184812</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="0"/>
+        <v>0.12343545150501672</v>
+      </c>
+      <c r="N22" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E23" s="10">
+        <v>3</v>
+      </c>
+      <c r="F23" s="37">
+        <v>0.27900999999999998</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.2823</v>
+      </c>
+      <c r="H23" s="37">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.221</v>
+      </c>
+      <c r="J23" s="38">
+        <v>7.8549999999999995E-2</v>
+      </c>
+      <c r="K23" s="14">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="L23" s="37">
+        <f t="shared" si="0"/>
+        <v>0.12258773632397357</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" si="0"/>
+        <v>0.12406218905472637</v>
+      </c>
+      <c r="N23" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E24" s="10">
+        <v>4</v>
+      </c>
+      <c r="F24" s="37">
+        <v>0.27572999999999998</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="H24" s="37">
+        <v>0.2162</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0.217</v>
+      </c>
+      <c r="J24" s="37">
+        <v>7.7960000000000002E-2</v>
+      </c>
+      <c r="K24" s="9">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="L24" s="38">
+        <f>(2*F24*J24)/(F24+J24)</f>
+        <v>0.1215522678051401</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="0"/>
+        <v>0.1220476483762598</v>
+      </c>
+      <c r="N24" s="44">
+        <v>1E-3</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="5:17" ht="24" x14ac:dyDescent="0.3">
+      <c r="E26" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="57"/>
+    </row>
+    <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E27" s="42"/>
+      <c r="F27" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I27" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="M27" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="37">
+        <v>5.604E-2</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="37">
+        <v>4.5569999999999999E-2</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="37">
+        <v>2.5190000000000001E-2</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="37">
+        <f>(2*F29*J29)/(F29+J29)</f>
+        <v>3.4756804136402808E-2</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E30" s="10">
+        <v>2</v>
+      </c>
+      <c r="F30" s="37">
+        <v>5.9880000000000003E-2</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="37">
+        <v>4.956E-2</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="38">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="37">
+        <f>(2*F30*J30)/(F30+J30)</f>
+        <v>3.7313129455047139E-2</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E31" s="10">
+        <v>3</v>
+      </c>
+      <c r="F31" s="37">
+        <v>6.3469999999999999E-2</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="37">
+        <v>5.2380000000000003E-2</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="38">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="37">
+        <f>(2*F31*J31)/(F31+J31)</f>
+        <v>3.933663151027509E-2</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E32" s="10">
+        <v>4</v>
+      </c>
+      <c r="F32" s="37">
+        <v>6.515E-2</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="37">
+        <v>5.3249999999999999E-2</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="37">
+        <v>2.9170000000000001E-2</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="38">
+        <f>(2*F32*J32)/(F32+J32)</f>
+        <v>4.0297402459711619E-2</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E26:N26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exp/Sim_20241026.xlsx
+++ b/exp/Sim_20241026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53F17AB-EF32-EE47-9E94-F1AB35A6F14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359C788-F30C-CA47-B2C0-E21D8A645801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" activeTab="4" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
@@ -2838,7 +2838,7 @@
   <dimension ref="E10:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="37">
-        <v>0.14169999999999999</v>
+        <v>0.1492</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="37">

--- a/exp/Sim_20241026.xlsx
+++ b/exp/Sim_20241026.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0359C788-F30C-CA47-B2C0-E21D8A645801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC0E07-E5AE-1343-83C4-40E69B911B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="21120" activeTab="4" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="680" yWindow="3800" windowWidth="30100" windowHeight="13180" activeTab="4" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
-    <sheet name="MogulGPU" sheetId="1" r:id="rId2"/>
-    <sheet name="yelp2018" sheetId="2" r:id="rId3"/>
-    <sheet name="gowalla" sheetId="3" r:id="rId4"/>
-    <sheet name="LightGCNvsReplica" sheetId="5" r:id="rId5"/>
+    <sheet name="LightGCNvsReplica" sheetId="5" r:id="rId2"/>
+    <sheet name="gowalla" sheetId="7" r:id="rId3"/>
+    <sheet name="MogulGPU" sheetId="1" r:id="rId4"/>
+    <sheet name="yelp2018" sheetId="2" r:id="rId5"/>
+    <sheet name="amazon-book" sheetId="8" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">'amazon-book'!$G$10:$G$13</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="80">
   <si>
     <t>Paper value</t>
   </si>
@@ -204,9 +208,6 @@
     <t>{'precision': array([0.05451135]), 'recall': array([0.17737686]), 'ndcg': array([0.15152158])}</t>
   </si>
   <si>
-    <t>at 915</t>
-  </si>
-  <si>
     <t>python main.py --decay=1e-4 --lr=0.001 --layer=2 --seed=2020 --dataset="gowalla" --topks="[20]" --recdim=64 </t>
   </si>
   <si>
@@ -241,6 +242,48 @@
   </si>
   <si>
     <t>python main.py --decay=1e-4 --lr=0.001 --layer=2 --seed=2020 --dataset="gowalla" --topks="[20]" --recdim=64</t>
+  </si>
+  <si>
+    <t>itstore</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>1. Checking decay</t>
+  </si>
+  <si>
+    <t>prec</t>
+  </si>
+  <si>
+    <t>LightGCN-replica</t>
+  </si>
+  <si>
+    <t>max_epoch</t>
+  </si>
+  <si>
+    <t>layers</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>python main.py --layers=1 --batch_size=1024 --model=lightGCN --epochs=301 --dataset=gowalla --edge=bi --decay=1e-03 --verbose=1</t>
+  </si>
+  <si>
+    <t>hyperGCN (u-35, i-40, no-shuffle)</t>
+  </si>
+  <si>
+    <t>hyperGCN (u-25, i-30, no-shuffle)</t>
+  </si>
+  <si>
+    <t>max ep</t>
+  </si>
+  <si>
+    <t>hyperGCN (u-40, i-45, no-shuffle)</t>
+  </si>
+  <si>
+    <t>hyperGCN (u-60, i-18, no-shuffle)</t>
   </si>
 </sst>
 </file>
@@ -334,7 +377,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +408,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -472,13 +521,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -524,7 +582,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,6 +605,52 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="7" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -578,15 +681,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -604,6 +698,949 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>NCDG (amazon-book)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>hyperGCN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'amazon-book'!$G$10:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.27E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5400000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5900000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.61E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC29-B744-9135-A329B255B4BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>LightGCN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'amazon-book'!$G$26:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.98E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.15E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1800000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1300000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BC29-B744-9135-A329B255B4BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="72057232"/>
+        <c:axId val="72054560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="72057232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72054560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72054560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="2.8000000000000001E-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72057232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6DDFDE7-CFDF-C3CD-4113-8132CF82FB84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -923,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4227896D-BE1A-B249-BC5D-D805EF240247}">
-  <dimension ref="D4:Q25"/>
+  <dimension ref="D4:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E33" sqref="E31:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,8 +1971,8 @@
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
@@ -991,10 +2028,10 @@
       <c r="D5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="26">
         <v>1682</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="26">
         <v>943</v>
       </c>
       <c r="G5" s="23">
@@ -1031,10 +2068,10 @@
       <c r="D6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="26">
         <v>3952</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="26">
         <v>6040</v>
       </c>
       <c r="G6" s="23">
@@ -1071,10 +2108,10 @@
       <c r="D7" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="26">
         <v>1403</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="26">
         <v>94651</v>
       </c>
       <c r="G7" s="23">
@@ -1111,8 +2148,8 @@
     </row>
     <row r="8" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -1127,10 +2164,10 @@
       <c r="D9" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="26">
         <v>10328</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="26">
         <v>4764</v>
       </c>
       <c r="G9" s="23">
@@ -1169,10 +2206,10 @@
       <c r="D10" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="26">
         <v>879</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="26">
         <v>677</v>
       </c>
       <c r="G10" s="23">
@@ -1211,10 +2248,10 @@
       <c r="D11" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="26">
         <v>2519</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="26">
         <v>34889</v>
       </c>
       <c r="G11" s="23">
@@ -1253,10 +2290,10 @@
       <c r="D12" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="26">
         <v>2035490</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="26">
         <v>874297</v>
       </c>
       <c r="G12" s="23">
@@ -1295,10 +2332,10 @@
       <c r="D13" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="26">
         <v>44783</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="26">
         <v>1020</v>
       </c>
       <c r="G13" s="23">
@@ -1333,8 +2370,8 @@
     </row>
     <row r="14" spans="4:17" ht="22" x14ac:dyDescent="0.3">
       <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -1346,245 +2383,346 @@
       <c r="O14" s="29"/>
     </row>
     <row r="15" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="49">
         <v>29858</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="49">
         <v>40981</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="50">
         <v>1027370</v>
       </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="31">
+      <c r="H15" s="32">
+        <f>G15/(E15*F15)</f>
+        <v>8.3962162285704375E-4</v>
+      </c>
+      <c r="I15" s="25">
+        <f>100%-H15</f>
+        <v>0.999160378377143</v>
+      </c>
+      <c r="J15" s="26">
         <f>G15*2</f>
         <v>2054740</v>
       </c>
       <c r="K15" s="26">
-        <v>1620256</v>
-      </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
+        <f>J15*80%</f>
+        <v>1643792</v>
+      </c>
+      <c r="L15" s="26">
+        <f>E15+F15</f>
+        <v>70839</v>
+      </c>
+      <c r="M15" s="27">
+        <f>J15/L15</f>
+        <v>29.005773655754599</v>
+      </c>
+      <c r="N15" s="28">
+        <f>J15/(L15*(L15-1))</f>
+        <v>4.094662985368672E-4</v>
+      </c>
       <c r="O15" s="29"/>
+      <c r="P15" s="27">
+        <f>G15/E15</f>
+        <v>34.408533726304505</v>
+      </c>
+      <c r="Q15" s="27">
+        <f>G15/F15</f>
+        <v>25.06942241526561</v>
+      </c>
     </row>
     <row r="16" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="D16" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="23">
-        <v>29858</v>
-      </c>
-      <c r="F16" s="23">
-        <v>40981</v>
-      </c>
-      <c r="G16" s="23">
-        <v>1027370</v>
+      <c r="D16" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="49">
+        <v>31668</v>
+      </c>
+      <c r="F16" s="49">
+        <v>38048</v>
+      </c>
+      <c r="G16" s="50">
+        <v>1561406</v>
       </c>
       <c r="H16" s="32">
         <f>G16/(E16*F16)</f>
-        <v>8.3962162285704375E-4</v>
+        <v>1.2958757851778645E-3</v>
       </c>
       <c r="I16" s="25">
         <f>100%-H16</f>
-        <v>0.999160378377143</v>
+        <v>0.99870412421482213</v>
       </c>
       <c r="J16" s="26">
         <f>G16*2</f>
-        <v>2054740</v>
+        <v>3122812</v>
       </c>
       <c r="K16" s="26">
         <f>J16*80%</f>
-        <v>1643792</v>
+        <v>2498249.6</v>
       </c>
       <c r="L16" s="26">
         <f>E16+F16</f>
-        <v>70839</v>
+        <v>69716</v>
       </c>
       <c r="M16" s="27">
         <f>J16/L16</f>
-        <v>29.005773655754599</v>
+        <v>44.793332950829075</v>
       </c>
       <c r="N16" s="28">
         <f>J16/(L16*(L16-1))</f>
-        <v>4.094662985368672E-4</v>
+        <v>6.4252073371339131E-4</v>
       </c>
       <c r="O16" s="29"/>
       <c r="P16" s="27">
         <f>G16/E16</f>
-        <v>34.408533726304505</v>
+        <v>49.305481874447395</v>
       </c>
       <c r="Q16" s="27">
         <f>G16/F16</f>
-        <v>25.06942241526561</v>
+        <v>41.037794365012616</v>
       </c>
     </row>
     <row r="17" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="D17" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="23">
-        <v>31668</v>
-      </c>
-      <c r="F17" s="23">
-        <v>38048</v>
-      </c>
-      <c r="G17" s="23">
-        <v>1561406</v>
+      <c r="D17" s="48" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="49">
+        <v>52643</v>
+      </c>
+      <c r="F17" s="49">
+        <v>91599</v>
+      </c>
+      <c r="G17" s="50">
+        <v>2984108</v>
       </c>
       <c r="H17" s="32">
         <f>G17/(E17*F17)</f>
-        <v>1.2958757851778645E-3</v>
+        <v>6.1884683448499807E-4</v>
       </c>
       <c r="I17" s="25">
         <f>100%-H17</f>
-        <v>0.99870412421482213</v>
+        <v>0.99938115316551501</v>
       </c>
       <c r="J17" s="26">
         <f>G17*2</f>
-        <v>3122812</v>
+        <v>5968216</v>
       </c>
       <c r="K17" s="26">
         <f>J17*80%</f>
-        <v>2498249.6</v>
+        <v>4774572.8</v>
       </c>
       <c r="L17" s="26">
         <f>E17+F17</f>
-        <v>69716</v>
+        <v>144242</v>
       </c>
       <c r="M17" s="27">
         <f>J17/L17</f>
-        <v>44.793332950829075</v>
+        <v>41.376409090278834</v>
       </c>
       <c r="N17" s="28">
         <f>J17/(L17*(L17-1))</f>
-        <v>6.4252073371339131E-4</v>
+        <v>2.8685608870070812E-4</v>
       </c>
       <c r="O17" s="29"/>
       <c r="P17" s="27">
         <f>G17/E17</f>
-        <v>49.305481874447395</v>
+        <v>56.685751191991336</v>
       </c>
       <c r="Q17" s="27">
         <f>G17/F17</f>
-        <v>41.037794365012616</v>
-      </c>
-    </row>
-    <row r="18" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="D18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="23">
-        <v>52643</v>
-      </c>
-      <c r="F18" s="23">
-        <v>91599</v>
-      </c>
-      <c r="G18" s="23">
+        <v>32.577953907793756</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+    </row>
+    <row r="22" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D22" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="26">
+        <v>1878</v>
+      </c>
+      <c r="F22" s="26">
+        <v>4476</v>
+      </c>
+      <c r="G22" s="23">
+        <f>G23+G24</f>
+        <v>52668</v>
+      </c>
+      <c r="H22" s="32">
+        <f>G22/(E22*F22)</f>
+        <v>6.265578291891151E-3</v>
+      </c>
+      <c r="I22" s="25">
+        <f>100%-H22</f>
+        <v>0.99373442170810888</v>
+      </c>
+      <c r="J22" s="26">
+        <f>G22*2</f>
+        <v>105336</v>
+      </c>
+      <c r="K22" s="26">
+        <f>J22*80%</f>
+        <v>84268.800000000003</v>
+      </c>
+      <c r="L22" s="26">
+        <f>E22+F22</f>
+        <v>6354</v>
+      </c>
+      <c r="M22" s="27">
+        <f>J22/L22</f>
+        <v>16.577903682719548</v>
+      </c>
+      <c r="N22" s="28">
+        <f>J22/(L22*(L22-1))</f>
+        <v>2.6094606772736578E-3</v>
+      </c>
+      <c r="O22" s="29"/>
+      <c r="P22" s="27">
+        <f>G22/E22</f>
+        <v>28.044728434504794</v>
+      </c>
+      <c r="Q22" s="27">
+        <f>G22/F22</f>
+        <v>11.766756032171582</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23">
+        <v>10533</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24">
+        <v>42135</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+    </row>
+    <row r="27" spans="4:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="D27" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="26">
+        <v>7403</v>
+      </c>
+      <c r="F27" s="26">
+        <v>17192</v>
+      </c>
+      <c r="G27" s="23">
+        <f>G28+G29</f>
+        <v>227717</v>
+      </c>
+      <c r="H27" s="32">
+        <f>G27/(E27*F27)</f>
+        <v>1.7892099382194294E-3</v>
+      </c>
+      <c r="I27" s="25">
+        <f>100%-H27</f>
+        <v>0.9982107900617806</v>
+      </c>
+      <c r="J27" s="26">
+        <f>G27*2</f>
+        <v>455434</v>
+      </c>
+      <c r="K27" s="26">
+        <f>J27*80%</f>
+        <v>364347.2</v>
+      </c>
+      <c r="L27" s="26">
+        <f>E27+F27</f>
+        <v>24595</v>
+      </c>
+      <c r="M27" s="27">
+        <f>J27/L27</f>
+        <v>18.517340922951821</v>
+      </c>
+      <c r="N27" s="28">
+        <f>J27/(L27*(L27-1))</f>
+        <v>7.529210751789794E-4</v>
+      </c>
+      <c r="O27" s="29"/>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>184182</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>43535</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="E31" s="58">
+        <v>2380730</v>
+      </c>
+      <c r="G31">
+        <v>839986</v>
+      </c>
+      <c r="H31">
+        <v>810128</v>
+      </c>
+      <c r="J31">
+        <v>1237259</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="E32" s="58">
+        <v>603378</v>
+      </c>
+      <c r="G32">
+        <v>247100</v>
+      </c>
+      <c r="H32">
+        <v>217242</v>
+      </c>
+      <c r="J32">
+        <v>324147</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="E33" s="58">
+        <f>E32+E31</f>
         <v>2984108</v>
       </c>
-      <c r="H18" s="32">
-        <f>G18/(E18*F18)</f>
-        <v>6.1884683448499807E-4</v>
-      </c>
-      <c r="I18" s="25">
-        <f>100%-H18</f>
-        <v>0.99938115316551501</v>
-      </c>
-      <c r="J18" s="26">
-        <f>G18*2</f>
-        <v>5968216</v>
-      </c>
-      <c r="K18" s="26">
-        <f>J18*80%</f>
-        <v>4774572.8</v>
-      </c>
-      <c r="L18" s="26">
-        <f>E18+F18</f>
-        <v>144242</v>
-      </c>
-      <c r="M18" s="27">
-        <f>J18/L18</f>
-        <v>41.376409090278834</v>
-      </c>
-      <c r="N18" s="28">
-        <f>J18/(L18*(L18-1))</f>
-        <v>2.8685608870070812E-4</v>
-      </c>
-      <c r="O18" s="29"/>
-      <c r="P18" s="27">
-        <f>G18/E18</f>
-        <v>56.685751191991336</v>
-      </c>
-      <c r="Q18" s="27">
-        <f>G18/F18</f>
-        <v>32.577953907793756</v>
-      </c>
-    </row>
-    <row r="23" spans="4:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="D23" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="23">
-        <v>1878</v>
-      </c>
-      <c r="F23" s="23">
-        <v>4476</v>
-      </c>
-      <c r="G23" s="23">
-        <f>G24+G25</f>
-        <v>52668</v>
-      </c>
-      <c r="H23" s="32">
-        <f>G23/(E23*F23)</f>
-        <v>6.265578291891151E-3</v>
-      </c>
-      <c r="I23" s="25">
-        <f>100%-H23</f>
-        <v>0.99373442170810888</v>
-      </c>
-      <c r="J23" s="26">
-        <f>G23*2</f>
-        <v>105336</v>
-      </c>
-      <c r="K23" s="26">
-        <f>J23*80%</f>
-        <v>84268.800000000003</v>
-      </c>
-      <c r="L23" s="26">
-        <f>E23+F23</f>
-        <v>6354</v>
-      </c>
-      <c r="M23" s="27">
-        <f>J23/L23</f>
-        <v>16.577903682719548</v>
-      </c>
-      <c r="N23" s="28">
-        <f>J23/(L23*(L23-1))</f>
-        <v>2.6094606772736578E-3</v>
-      </c>
-      <c r="O23" s="29"/>
-      <c r="P23" s="27">
-        <f>G23/E23</f>
-        <v>28.044728434504794</v>
-      </c>
-      <c r="Q23" s="27">
-        <f>G23/F23</f>
-        <v>11.766756032171582</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="G24">
-        <v>10533</v>
-      </c>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.2">
-      <c r="G25">
-        <v>42135</v>
+      <c r="G33" s="23">
+        <f>G32+G31</f>
+        <v>1087086</v>
+      </c>
+      <c r="H33" s="23">
+        <f>H32+H31</f>
+        <v>1027370</v>
+      </c>
+      <c r="J33" s="54">
+        <f>J32+J31</f>
+        <v>1561406</v>
       </c>
     </row>
   </sheetData>
@@ -1593,11 +2731,980 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9645EE3D-0953-4146-AB32-A8CD72D7280E}">
+  <dimension ref="E10:R32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="5:17" ht="24" x14ac:dyDescent="0.3">
+      <c r="E10" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="63"/>
+      <c r="Q10" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E11" s="41"/>
+      <c r="F11" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="12"/>
+      <c r="H12" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.1726</v>
+      </c>
+      <c r="H13" s="36">
+        <v>0.1492</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="J13" s="36"/>
+      <c r="K13" s="9">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="L13" s="36">
+        <f>(2*F13*J13)/(F13+J13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" ref="M13" si="0">(2*G13*K13)/(G13+K13)</f>
+        <v>8.168155683325963E-2</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="36">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="36">
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="37">
+        <v>5.4559999999999997E-2</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="36">
+        <f>(2*F14*J14)/(F14+J14)</f>
+        <v>8.3585657917309999E-2</v>
+      </c>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="Q14" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E15" s="10">
+        <v>3</v>
+      </c>
+      <c r="F15" s="36">
+        <v>0.18240000000000001</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="36">
+        <v>0.1547</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="37">
+        <v>5.5890000000000002E-2</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="36">
+        <f>(2*F15*J15)/(F15+J15)</f>
+        <v>8.5562432330353766E-2</v>
+      </c>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E16" s="10">
+        <v>4</v>
+      </c>
+      <c r="F16" s="36">
+        <v>0.1825</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="36">
+        <v>0.1537</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="36">
+        <v>5.5759999999999997E-2</v>
+      </c>
+      <c r="K16" s="9"/>
+      <c r="L16" s="37">
+        <f>(2*F16*J16)/(F16+J16)</f>
+        <v>8.5420968689666754E-2</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="18" spans="5:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="E18" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="63"/>
+      <c r="Q18" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E19" s="41"/>
+      <c r="F19" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L19" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q19" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E20" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="Q20" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+      <c r="F21" s="36">
+        <v>0.27592</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.27450000000000002</v>
+      </c>
+      <c r="H21" s="40">
+        <v>0.21309</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.21310000000000001</v>
+      </c>
+      <c r="J21" s="36">
+        <v>7.7289999999999998E-2</v>
+      </c>
+      <c r="K21" s="9">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="L21" s="36">
+        <f t="shared" ref="L21:M24" si="1">(2*F21*J21)/(F21+J21)</f>
+        <v>0.12075454715325161</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="1"/>
+        <v>0.12075191815856777</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0.01</v>
+      </c>
+      <c r="Q21" s="38">
+        <v>1E-3</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E22" s="10">
+        <v>2</v>
+      </c>
+      <c r="F22" s="36">
+        <v>0.27932000000000001</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.27960000000000002</v>
+      </c>
+      <c r="H22" s="36">
+        <v>0.2185</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.2208</v>
+      </c>
+      <c r="J22" s="37">
+        <v>7.8340000000000007E-2</v>
+      </c>
+      <c r="K22" s="14">
+        <v>7.9200000000000007E-2</v>
+      </c>
+      <c r="L22" s="36">
+        <f t="shared" si="1"/>
+        <v>0.12236162165184812</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="1"/>
+        <v>0.12343545150501672</v>
+      </c>
+      <c r="N22" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E23" s="10">
+        <v>3</v>
+      </c>
+      <c r="F23" s="36">
+        <v>0.27900999999999998</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.2823</v>
+      </c>
+      <c r="H23" s="36">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="I23" s="14">
+        <v>0.221</v>
+      </c>
+      <c r="J23" s="37">
+        <v>7.8549999999999995E-2</v>
+      </c>
+      <c r="K23" s="14">
+        <v>7.9500000000000001E-2</v>
+      </c>
+      <c r="L23" s="36">
+        <f t="shared" si="1"/>
+        <v>0.12258773632397357</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" si="1"/>
+        <v>0.12406218905472637</v>
+      </c>
+      <c r="N23" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E24" s="10">
+        <v>4</v>
+      </c>
+      <c r="F24" s="36">
+        <v>0.27572999999999998</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.27910000000000001</v>
+      </c>
+      <c r="H24" s="36">
+        <v>0.2162</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0.217</v>
+      </c>
+      <c r="J24" s="36">
+        <v>7.7960000000000002E-2</v>
+      </c>
+      <c r="K24" s="9">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="L24" s="37">
+        <f>(2*F24*J24)/(F24+J24)</f>
+        <v>0.1215522678051401</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="1"/>
+        <v>0.1220476483762598</v>
+      </c>
+      <c r="N24" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="5:18" ht="24" x14ac:dyDescent="0.3">
+      <c r="E26" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="63"/>
+    </row>
+    <row r="27" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E27" s="41"/>
+      <c r="F27" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="M27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="12"/>
+      <c r="H28" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="12"/>
+      <c r="J28" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+      <c r="F29" s="36">
+        <v>5.604E-2</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="36">
+        <v>4.5569999999999999E-2</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="36">
+        <v>2.5190000000000001E-2</v>
+      </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="36">
+        <f>(2*F29*J29)/(F29+J29)</f>
+        <v>3.4756804136402808E-2</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E30" s="10">
+        <v>2</v>
+      </c>
+      <c r="F30" s="36">
+        <v>5.9880000000000003E-2</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="H30" s="36">
+        <v>4.956E-2</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="37">
+        <v>2.7099999999999999E-2</v>
+      </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="36">
+        <f>(2*F30*J30)/(F30+J30)</f>
+        <v>3.7313129455047139E-2</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E31" s="10">
+        <v>3</v>
+      </c>
+      <c r="F31" s="36">
+        <v>6.3469999999999999E-2</v>
+      </c>
+      <c r="G31" s="9"/>
+      <c r="H31" s="36">
+        <v>5.2380000000000003E-2</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="37">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="36">
+        <f>(2*F31*J31)/(F31+J31)</f>
+        <v>3.933663151027509E-2</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E32" s="10">
+        <v>4</v>
+      </c>
+      <c r="F32" s="36">
+        <v>6.515E-2</v>
+      </c>
+      <c r="G32" s="9"/>
+      <c r="H32" s="36">
+        <v>5.3249999999999999E-2</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="36">
+        <v>2.9170000000000001E-2</v>
+      </c>
+      <c r="K32" s="9"/>
+      <c r="L32" s="37">
+        <f>(2*F32*J32)/(F32+J32)</f>
+        <v>4.0297402459711619E-2</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="E10:N10"/>
+    <mergeCell ref="E26:N26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82757750-2341-5941-B5A9-350C8E89CB41}">
+  <dimension ref="E5:O22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="5:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="E5" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+    </row>
+    <row r="6" spans="5:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+    </row>
+    <row r="7" spans="5:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="E7" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="E8" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="F8" s="9">
+        <v>2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H8" s="9">
+        <v>201</v>
+      </c>
+      <c r="I8" s="9">
+        <v>190</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5.2200000000000003E-2</v>
+      </c>
+      <c r="L8" s="14">
+        <f>(2*J8*K8)/(J8+K8)</f>
+        <v>7.9651226158038158E-2</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.1434</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="E9" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="F9" s="9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H9" s="9">
+        <v>201</v>
+      </c>
+      <c r="I9" s="9">
+        <v>130</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5.28E-2</v>
+      </c>
+      <c r="L9" s="14">
+        <f>(2*J9*K9)/(J9+K9)</f>
+        <v>8.0764008908685972E-2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.14749999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="E10" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F10" s="9">
+        <v>2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H10" s="9">
+        <v>201</v>
+      </c>
+      <c r="I10" s="9">
+        <v>130</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.1696</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="L10" s="14">
+        <f>(2*J10*K10)/(J10+K10)</f>
+        <v>7.9478465011286692E-2</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.1449</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="E11" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H11" s="9">
+        <v>1001</v>
+      </c>
+      <c r="I11" s="9">
+        <v>570</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0.17269999999999999</v>
+      </c>
+      <c r="K11" s="9">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="L11" s="14">
+        <f>(2*J11*K11)/(J11+K11)</f>
+        <v>8.1692749778956672E-2</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.14749999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="E15" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+    </row>
+    <row r="16" spans="5:13" ht="22" x14ac:dyDescent="0.3">
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+      <c r="J16" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+    </row>
+    <row r="17" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="E17" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L17" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="E18" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H18" s="9">
+        <v>201</v>
+      </c>
+      <c r="I18" s="9">
+        <v>190</v>
+      </c>
+      <c r="J18" s="14"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="14" t="e">
+        <f>(2*J18*K18)/(J18+K18)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="E19" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="F19" s="9">
+        <v>2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H19" s="9">
+        <v>201</v>
+      </c>
+      <c r="I19" s="9">
+        <v>130</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="14" t="e">
+        <f>(2*J19*K19)/(J19+K19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="E20" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F20" s="9">
+        <v>2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H20" s="9">
+        <v>201</v>
+      </c>
+      <c r="I20" s="9">
+        <v>130</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="14" t="e">
+        <f>(2*J20*K20)/(J20+K20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M20" s="9"/>
+    </row>
+    <row r="21" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="E21" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H21" s="9">
+        <v>301</v>
+      </c>
+      <c r="I21" s="9">
+        <v>290</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="K21" s="9">
+        <v>5.28E-2</v>
+      </c>
+      <c r="L21" s="14">
+        <f>(2*J21*K21)/(J21+K21)</f>
+        <v>8.0596950672645745E-2</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.1459</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="E22" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H22" s="9">
+        <v>301</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="E5:M5"/>
+    <mergeCell ref="E15:M15"/>
+    <mergeCell ref="J16:M16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917CA5BC-A1D0-F548-BBB7-C5C019C6DEDF}">
   <dimension ref="C2:AB23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:U8"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1622,56 +3729,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
     </row>
     <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="53" t="s">
+      <c r="M4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="53" t="s">
+      <c r="R4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
     </row>
     <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -1731,16 +3838,16 @@
       </c>
     </row>
     <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="50">
+      <c r="C6" s="71">
         <v>1000</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="75">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="75">
         <v>0.1492</v>
       </c>
       <c r="G6" s="7">
@@ -1753,7 +3860,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="54">
+      <c r="M6" s="75">
         <v>0.17549999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -1762,7 +3869,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="54">
+      <c r="R6" s="75">
         <v>0.17549999999999999</v>
       </c>
       <c r="S6" s="1"/>
@@ -1770,12 +3877,12 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="51"/>
-      <c r="D7" s="54"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="54"/>
+      <c r="F7" s="75"/>
       <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
@@ -1790,7 +3897,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="54"/>
+      <c r="M7" s="75"/>
       <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
@@ -1799,7 +3906,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="54"/>
+      <c r="R7" s="75"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
@@ -1810,14 +3917,14 @@
       </c>
     </row>
     <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
-      <c r="D8" s="34">
+      <c r="C8" s="73"/>
+      <c r="D8" s="33">
         <v>2</v>
       </c>
       <c r="E8" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="34">
         <v>0.15240000000000001</v>
       </c>
       <c r="G8" s="7">
@@ -1830,7 +3937,7 @@
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-      <c r="M8" s="35">
+      <c r="M8" s="34">
         <v>0.17860000000000001</v>
       </c>
       <c r="N8" s="7">
@@ -1839,7 +3946,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
-      <c r="R8" s="35">
+      <c r="R8" s="34">
         <v>5.1060000000000001E-2</v>
       </c>
       <c r="S8" s="7">
@@ -1852,13 +3959,13 @@
       </c>
     </row>
     <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="X13" s="46" t="s">
+      <c r="X13" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="Y13" s="47"/>
-      <c r="Z13" s="47"/>
-      <c r="AA13" s="47"/>
-      <c r="AB13" s="48"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="69"/>
     </row>
     <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="X14" s="12" t="s">
@@ -1920,13 +4027,13 @@
       </c>
     </row>
     <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="48"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="69"/>
       <c r="X18" s="10">
         <v>4</v>
       </c>
@@ -1990,19 +4097,19 @@
         <f>(2*D21*F21)/(D21+F21)</f>
         <v>8.3585657917309999E-2</v>
       </c>
-      <c r="J21" s="49" t="s">
+      <c r="J21" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-      <c r="N21" s="49"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
     </row>
     <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
@@ -2040,7 +4147,7 @@
         <v>8.5420968689666754E-2</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2063,1348 +4170,1417 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
-  <dimension ref="E9:X37"/>
+  <dimension ref="D9:AA72"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:I14"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:21" ht="22" x14ac:dyDescent="0.3">
-      <c r="E9" s="46" t="s">
+    <row r="9" spans="4:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="D9" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="K9" s="46" t="s">
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="N9" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="47"/>
-      <c r="P9" s="48"/>
-    </row>
-    <row r="10" spans="5:21" ht="22" x14ac:dyDescent="0.3">
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="69"/>
+    </row>
+    <row r="10" spans="4:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="D10" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="E10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="O10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="P10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="Q10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="R10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="S10" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="4:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>5.1499999999999997E-2</v>
+      </c>
+      <c r="G11" s="9"/>
+      <c r="H11" s="11">
+        <f>(2*E11*G11)/(E11+G11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="10">
+        <v>1</v>
+      </c>
+      <c r="O11" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="P11" s="9">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>2.75E-2</v>
+      </c>
+      <c r="R11" s="9">
+        <f>(2*O11*Q11)/(O11+Q11)</f>
+        <v>3.6211180124223599E-2</v>
+      </c>
+      <c r="S11" s="9">
+        <v>321</v>
+      </c>
+      <c r="U11" s="14">
+        <f>R11-H11</f>
+        <v>3.6211180124223599E-2</v>
+      </c>
+      <c r="V11" s="15" t="e">
+        <f>U11/H11</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="14">
+        <f>P11-F11</f>
+        <v>-5.1999999999999963E-3</v>
+      </c>
+      <c r="X11" s="16">
+        <f>W11/F11</f>
+        <v>-0.10097087378640771</v>
+      </c>
+    </row>
+    <row r="12" spans="4:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="D12" s="10">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>5.04E-2</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <f>(2*E12*G12)/(E12+G12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="10">
+        <v>2</v>
+      </c>
+      <c r="O12" s="9">
+        <v>5.4899999999999997E-2</v>
+      </c>
+      <c r="P12" s="9">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="R12" s="9">
+        <f>(2*O12*Q12)/(O12+Q12)</f>
+        <v>3.7434813925570229E-2</v>
+      </c>
+      <c r="S12" s="9">
+        <v>642</v>
+      </c>
+      <c r="T12" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="4:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="D13" s="10">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9">
+        <v>6.3899999999999998E-2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <f>(2*E13*G13)/(E13+G13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="10">
+        <v>3</v>
+      </c>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="4:24" ht="22" x14ac:dyDescent="0.3">
+      <c r="D14" s="10">
+        <v>4</v>
+      </c>
+      <c r="E14" s="11">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="F14" s="14">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="11">
+        <f>(2*E14*G14)/(E14+G14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="10">
+        <v>4</v>
+      </c>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="18" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="D18" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="69"/>
+      <c r="N18" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="69"/>
+    </row>
+    <row r="19" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="D19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="E19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="F19" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="G19" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="H19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="12" t="s">
+      <c r="I19" s="12" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="5:21" ht="22" x14ac:dyDescent="0.3">
-      <c r="E11" s="10">
+      <c r="J19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="D20" s="10">
         <v>1</v>
       </c>
-      <c r="F11" s="9">
-        <v>5.604E-2</v>
-      </c>
-      <c r="G11" s="9">
-        <v>4.5569999999999999E-2</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2.5190000000000001E-2</v>
-      </c>
-      <c r="I11" s="9">
-        <f>(2*F11*H11)/(F11+H11)</f>
-        <v>3.4756804136402808E-2</v>
-      </c>
-      <c r="K11" s="10">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="2"/>
+      <c r="N20" s="10">
         <v>1</v>
       </c>
-      <c r="L11" s="9">
+      <c r="O20" s="9">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="P20" s="9">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>2.7E-2</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" ref="R20:R26" si="0">(2*O20*Q20)/(O20+Q20)</f>
+        <v>3.5520912547528517E-2</v>
+      </c>
+      <c r="S20" s="9">
+        <v>321</v>
+      </c>
+      <c r="T20" s="9">
+        <v>15</v>
+      </c>
+      <c r="U20" s="9">
+        <v>30</v>
+      </c>
+      <c r="V20" s="9">
+        <v>160</v>
+      </c>
+      <c r="W20" s="18"/>
+    </row>
+    <row r="21" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="2"/>
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
+      <c r="O21" s="14">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="M11" s="9">
+      <c r="P21" s="9">
         <v>4.6300000000000001E-2</v>
       </c>
-      <c r="N11" s="9">
+      <c r="Q21" s="9">
         <v>2.75E-2</v>
       </c>
-      <c r="O11" s="9">
-        <f>(2*L11*N11)/(L11+N11)</f>
-        <v>3.6211180124223599E-2</v>
-      </c>
-      <c r="P11" s="9">
-        <v>321</v>
-      </c>
-      <c r="R11" s="14">
-        <f>O11-I11</f>
-        <v>1.4543759878207912E-3</v>
-      </c>
-      <c r="S11" s="15">
-        <f>R11/I11</f>
-        <v>4.1844353183713441E-2</v>
-      </c>
-      <c r="T11" s="14">
-        <f>M11-G11</f>
-        <v>7.3000000000000148E-4</v>
-      </c>
-      <c r="U11" s="16">
-        <f>T11/G11</f>
-        <v>1.601931095018656E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="5:21" ht="22" x14ac:dyDescent="0.3">
-      <c r="E12" s="10">
-        <v>2</v>
-      </c>
-      <c r="F12" s="9">
-        <v>5.9880000000000003E-2</v>
-      </c>
-      <c r="G12" s="9">
-        <v>4.956E-2</v>
-      </c>
-      <c r="H12" s="11">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="I12" s="9">
-        <f>(2*F12*H12)/(F12+H12)</f>
-        <v>3.7313129455047139E-2</v>
-      </c>
-      <c r="K12" s="10">
-        <v>2</v>
-      </c>
-      <c r="L12" s="9">
-        <v>5.4899999999999997E-2</v>
-      </c>
-      <c r="M12" s="9">
-        <v>4.8099999999999997E-2</v>
-      </c>
-      <c r="N12" s="9">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="O12" s="9">
-        <f>(2*L12*N12)/(L12+N12)</f>
-        <v>3.7434813925570229E-2</v>
-      </c>
-      <c r="P12" s="9">
-        <v>642</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="13"/>
-    </row>
-    <row r="13" spans="5:21" ht="22" x14ac:dyDescent="0.3">
-      <c r="E13" s="10">
-        <v>3</v>
-      </c>
-      <c r="F13" s="9">
-        <v>6.3469999999999999E-2</v>
-      </c>
-      <c r="G13" s="9">
-        <v>5.2380000000000003E-2</v>
-      </c>
-      <c r="H13" s="11">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="I13" s="9">
-        <f>(2*F13*H13)/(F13+H13)</f>
-        <v>3.933663151027509E-2</v>
-      </c>
-      <c r="K13" s="10">
-        <v>3</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-    </row>
-    <row r="14" spans="5:21" ht="22" x14ac:dyDescent="0.3">
-      <c r="E14" s="10">
-        <v>4</v>
-      </c>
-      <c r="F14" s="9">
-        <v>6.515E-2</v>
-      </c>
-      <c r="G14" s="9">
-        <v>5.3249999999999999E-2</v>
-      </c>
-      <c r="H14" s="9">
-        <v>2.9170000000000001E-2</v>
-      </c>
-      <c r="I14" s="11">
-        <f>(2*F14*H14)/(F14+H14)</f>
-        <v>4.0297402459711619E-2</v>
-      </c>
-      <c r="K14" s="10">
-        <v>4</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="18" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K18" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="48"/>
-    </row>
-    <row r="19" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K19" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="N19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="S19" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K20" s="10">
-        <v>1</v>
-      </c>
-      <c r="L20" s="9">
-        <v>5.1900000000000002E-2</v>
-      </c>
-      <c r="M20" s="9">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="N20" s="9">
-        <v>2.7E-2</v>
-      </c>
-      <c r="O20" s="9">
-        <f t="shared" ref="O20:O26" si="0">(2*L20*N20)/(L20+N20)</f>
-        <v>3.5520912547528517E-2</v>
-      </c>
-      <c r="P20" s="9">
-        <v>321</v>
-      </c>
-      <c r="Q20" s="9">
-        <v>15</v>
-      </c>
-      <c r="R20" s="9">
-        <v>30</v>
-      </c>
-      <c r="S20" s="9">
-        <v>160</v>
-      </c>
-      <c r="T20" s="18"/>
-    </row>
-    <row r="21" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="14">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="M21" s="9">
-        <v>4.6300000000000001E-2</v>
-      </c>
-      <c r="N21" s="9">
-        <v>2.75E-2</v>
-      </c>
-      <c r="O21" s="9">
+      <c r="R21" s="9">
         <f t="shared" si="0"/>
         <v>3.6211180124223599E-2</v>
       </c>
-      <c r="P21" s="9">
-        <v>321</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>20</v>
-      </c>
-      <c r="R21" s="9">
-        <v>30</v>
-      </c>
       <c r="S21" s="9">
         <v>321</v>
       </c>
-      <c r="T21" s="18"/>
-    </row>
-    <row r="22" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K22" s="10">
+      <c r="T21" s="9">
+        <v>20</v>
+      </c>
+      <c r="U21" s="9">
+        <v>30</v>
+      </c>
+      <c r="V21" s="9">
+        <v>321</v>
+      </c>
+      <c r="W21" s="18"/>
+    </row>
+    <row r="22" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="D22" s="10">
+        <v>3</v>
+      </c>
+      <c r="E22" s="9">
+        <v>6.4699999999999994E-2</v>
+      </c>
+      <c r="F22" s="9">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="G22" s="9">
+        <v>2.92E-2</v>
+      </c>
+      <c r="H22" s="14">
+        <f>(2*E22*G22)/(E22+G22)</f>
+        <v>4.0239403620873269E-2</v>
+      </c>
+      <c r="I22" s="56">
+        <v>201</v>
+      </c>
+      <c r="J22" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="N22" s="10">
         <v>1</v>
       </c>
-      <c r="L22" s="9">
+      <c r="O22" s="9">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="M22" s="9">
+      <c r="P22" s="9">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="N22" s="9">
+      <c r="Q22" s="9">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="O22" s="9">
+      <c r="R22" s="9">
         <f t="shared" si="0"/>
         <v>3.6924574209245747E-2</v>
       </c>
-      <c r="P22" s="9">
+      <c r="S22" s="9">
         <v>321</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="T22" s="9">
         <v>35</v>
       </c>
-      <c r="R22" s="9">
+      <c r="U22" s="9">
         <v>30</v>
       </c>
-      <c r="S22" s="9">
+      <c r="V22" s="9">
         <v>240</v>
       </c>
-      <c r="U22">
-        <f>M22-G11</f>
-        <v>1.6299999999999995E-3</v>
-      </c>
-      <c r="V22" s="20">
-        <f>U22/G11</f>
-        <v>3.5769146368224695E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K23" s="10">
+      <c r="X22">
+        <f>P22-F11</f>
+        <v>-4.2999999999999983E-3</v>
+      </c>
+      <c r="Y22" s="20">
+        <f>X22/F11</f>
+        <v>-8.3495145631067927E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="D23" s="10">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="F23" s="9">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="G23" s="9">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="H23" s="14">
+        <f>(2*E23*G23)/(E23+G23)</f>
+        <v>4.010576923076923E-2</v>
+      </c>
+      <c r="I23" s="56">
+        <v>301</v>
+      </c>
+      <c r="J23" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="N23" s="10">
         <v>1</v>
       </c>
-      <c r="L23" s="9">
+      <c r="O23" s="9">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="M23" s="9">
+      <c r="P23" s="9">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="N23" s="9">
+      <c r="Q23" s="9">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="O23" s="9">
+      <c r="R23" s="9">
         <f t="shared" si="0"/>
         <v>3.6878048780487803E-2</v>
       </c>
-      <c r="P23" s="9">
+      <c r="S23" s="9">
         <v>321</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="T23" s="9">
         <v>45</v>
       </c>
-      <c r="R23" s="9">
+      <c r="U23" s="9">
         <v>30</v>
       </c>
-      <c r="S23" s="9">
+      <c r="V23" s="9">
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K24" s="19">
+    <row r="24" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="N24" s="19">
         <v>1</v>
       </c>
-      <c r="L24" s="17">
+      <c r="O24" s="17">
         <v>5.4100000000000002E-2</v>
       </c>
-      <c r="M24" s="17">
+      <c r="P24" s="17">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="N24" s="17">
+      <c r="Q24" s="17">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="O24" s="17">
+      <c r="R24" s="17">
         <f t="shared" si="0"/>
         <v>3.690133982947625E-2</v>
       </c>
-      <c r="P24" s="17">
+      <c r="S24" s="17">
         <v>321</v>
       </c>
-      <c r="Q24" s="17">
+      <c r="T24" s="17">
         <v>35</v>
       </c>
-      <c r="R24" s="17">
+      <c r="U24" s="17">
         <v>35</v>
       </c>
-      <c r="S24" s="17">
+      <c r="V24" s="17">
         <v>240</v>
       </c>
-      <c r="U24">
-        <f>M24-G11</f>
-        <v>1.8299999999999983E-3</v>
-      </c>
-      <c r="V24" s="13">
-        <f>U24/G11</f>
-        <v>4.015799868334427E-2</v>
-      </c>
-      <c r="W24">
-        <f>O24-I11</f>
-        <v>2.1445356930734419E-3</v>
-      </c>
-      <c r="X24" s="20">
-        <f>W24/I11</f>
-        <v>6.1701176110934369E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K25" s="19">
+      <c r="X24">
+        <f>P24-F11</f>
+        <v>-4.0999999999999995E-3</v>
+      </c>
+      <c r="Y24" s="13">
+        <f>X24/F11</f>
+        <v>-7.9611650485436891E-2</v>
+      </c>
+      <c r="Z24">
+        <f>R24-H11</f>
+        <v>3.690133982947625E-2</v>
+      </c>
+      <c r="AA24" s="20" t="e">
+        <f>Z24/H11</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <f>E22-E13</f>
+        <v>7.9999999999999516E-4</v>
+      </c>
+      <c r="F25">
+        <f>F22-F13</f>
+        <v>6.9999999999999923E-4</v>
+      </c>
+      <c r="N25" s="19">
         <v>1</v>
       </c>
-      <c r="L25" s="17">
+      <c r="O25" s="17">
         <v>5.4300000000000001E-2</v>
       </c>
-      <c r="M25" s="17">
+      <c r="P25" s="17">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="N25" s="17">
+      <c r="Q25" s="17">
         <v>2.81E-2</v>
       </c>
-      <c r="O25" s="17">
+      <c r="R25" s="17">
         <f t="shared" si="0"/>
         <v>3.7034708737864075E-2</v>
       </c>
-      <c r="P25" s="17">
+      <c r="S25" s="17">
         <v>321</v>
       </c>
-      <c r="Q25" s="17">
+      <c r="T25" s="17">
         <v>35</v>
       </c>
-      <c r="R25" s="17">
+      <c r="U25" s="17">
         <v>45</v>
       </c>
-      <c r="S25" s="17">
+      <c r="V25" s="17">
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K26" s="19">
+    <row r="26" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="E26" s="20">
+        <f>E25/E13</f>
+        <v>1.2519561815336387E-2</v>
+      </c>
+      <c r="F26" s="20">
+        <f>F25/F13</f>
+        <v>1.3333333333333319E-2</v>
+      </c>
+      <c r="N26" s="19">
         <v>1</v>
       </c>
-      <c r="L26" s="17">
+      <c r="O26" s="17">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="M26" s="17">
+      <c r="P26" s="17">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="N26" s="17">
+      <c r="Q26" s="17">
         <v>2.8199999999999999E-2</v>
       </c>
-      <c r="O26" s="17">
+      <c r="R26" s="17">
         <f t="shared" si="0"/>
         <v>3.709805825242718E-2</v>
       </c>
-      <c r="P26" s="17">
+      <c r="S26" s="17">
         <v>321</v>
       </c>
-      <c r="Q26" s="17">
+      <c r="T26" s="17">
         <v>35</v>
       </c>
-      <c r="R26" s="17">
+      <c r="U26" s="17">
         <v>55</v>
       </c>
-      <c r="S26" s="17">
+      <c r="V26" s="17">
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K29" s="46" t="s">
+    <row r="29" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="D29" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="69"/>
+      <c r="N29" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="48"/>
-    </row>
-    <row r="30" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K30" s="12" t="s">
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="52"/>
+      <c r="S29" s="52"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="52"/>
+      <c r="V29" s="53"/>
+    </row>
+    <row r="30" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="D30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L30" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M30" s="12" t="s">
+      <c r="F30" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="G30" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="N30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P30" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q30" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="12" t="s">
+      <c r="R30" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="12" t="s">
+      <c r="S30" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="T30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R30" s="12" t="s">
+      <c r="U30" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="S30" s="12" t="s">
+      <c r="V30" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K31" s="10">
+    <row r="31" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="D31" s="10">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="N31" s="10">
         <v>2</v>
       </c>
-      <c r="L31" s="9">
+      <c r="O31" s="9">
         <v>5.57E-2</v>
       </c>
-      <c r="M31" s="9">
+      <c r="P31" s="9">
         <v>4.8800000000000003E-2</v>
       </c>
-      <c r="N31" s="9">
+      <c r="Q31" s="9">
         <v>2.8799999999999999E-2</v>
       </c>
-      <c r="O31" s="9">
-        <f>(2*L31*N31)/(L31+N31)</f>
+      <c r="R31" s="9">
+        <f>(2*O31*Q31)/(O31+Q31)</f>
         <v>3.7968284023668641E-2</v>
       </c>
-      <c r="P31" s="9">
+      <c r="S31" s="9">
         <v>601</v>
       </c>
-      <c r="Q31" s="9">
+      <c r="T31" s="9">
         <v>35</v>
       </c>
-      <c r="R31" s="9">
+      <c r="U31" s="9">
         <v>45</v>
       </c>
-      <c r="S31" s="9">
+      <c r="V31" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="11:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="K32" s="10"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="9"/>
+    <row r="32" spans="4:27" ht="22" x14ac:dyDescent="0.3">
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
+      <c r="E32" s="9">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="F32" s="9">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="G32" s="9">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="H32" s="14">
+        <f>(2*E32*G32)/(E32+G32)</f>
+        <v>3.9131653888280396E-2</v>
+      </c>
+      <c r="I32" s="9">
+        <v>301</v>
+      </c>
+      <c r="J32" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="N32" s="10"/>
+      <c r="O32" s="14"/>
       <c r="P32" s="9"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
       <c r="S32" s="9"/>
-    </row>
-    <row r="33" spans="11:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="K33" s="10"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="D33" s="10">
+        <v>3</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="N33" s="10"/>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
-    </row>
-    <row r="34" spans="11:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="K34" s="10"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+    </row>
+    <row r="34" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="D34" s="10">
+        <v>4</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="N34" s="10"/>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
       <c r="S34" s="9"/>
-    </row>
-    <row r="35" spans="11:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="K35" s="19"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+    </row>
+    <row r="35" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="N35" s="19"/>
       <c r="O35" s="17"/>
       <c r="P35" s="17"/>
       <c r="Q35" s="17"/>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
-    </row>
-    <row r="36" spans="11:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="K36" s="19"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+    </row>
+    <row r="36" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="N36" s="19"/>
       <c r="O36" s="17"/>
       <c r="P36" s="17"/>
       <c r="Q36" s="17"/>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
-    </row>
-    <row r="37" spans="11:19" ht="22" x14ac:dyDescent="0.3">
-      <c r="K37" s="19"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+    </row>
+    <row r="37" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="D37" s="67" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="69"/>
+      <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+    </row>
+    <row r="38" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="D38" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K38" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="D40" s="10">
+        <v>2</v>
+      </c>
+      <c r="E40" s="9">
+        <v>6.2899999999999998E-2</v>
+      </c>
+      <c r="F40" s="9">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="G40" s="9">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="H40" s="14">
+        <f>(2*E40*G40)/(E40+G40)</f>
+        <v>3.9131653888280396E-2</v>
+      </c>
+      <c r="I40" s="9">
+        <v>301</v>
+      </c>
+      <c r="J40" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="D41" s="10">
+        <v>3</v>
+      </c>
+      <c r="E41" s="9">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F41" s="9">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="G41" s="9">
+        <v>2.86E-2</v>
+      </c>
+      <c r="H41" s="14">
+        <f>(2*E41*G41)/(E41+G41)</f>
+        <v>3.947605633802817E-2</v>
+      </c>
+      <c r="I41" s="56">
+        <v>301</v>
+      </c>
+      <c r="J41" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="K41" s="56">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="D42" s="10">
+        <v>4</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="48" spans="4:22" ht="22" x14ac:dyDescent="0.3">
+      <c r="D48" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="68"/>
+      <c r="H48" s="68"/>
+      <c r="I48" s="68"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="69"/>
+    </row>
+    <row r="49" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="D49" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="D50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="D51" s="10">
+        <v>2</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="9">
+        <v>301</v>
+      </c>
+      <c r="J51" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="D52" s="10">
+        <v>3</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="56"/>
+      <c r="J52" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="K52" s="56">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="D53" s="10">
+        <v>4</v>
+      </c>
+      <c r="E53" s="9">
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="F53" s="9">
+        <v>5.3900000000000003E-2</v>
+      </c>
+      <c r="G53" s="9">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="H53" s="14">
+        <f>(2*E53*G53)/(E53+G53)</f>
+        <v>4.0812591815320043E-2</v>
+      </c>
+      <c r="I53" s="56">
+        <v>351</v>
+      </c>
+      <c r="J53" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="K53" s="56">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="E57" s="9">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="F57" s="11">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="E58" s="9">
+        <f>E53-E57</f>
+        <v>7.9999999999999516E-4</v>
+      </c>
+      <c r="F58" s="14">
+        <f>F53-F57</f>
+        <v>9.0000000000000496E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" ht="22" x14ac:dyDescent="0.3">
+      <c r="E59" s="16">
+        <f>E58/E57</f>
+        <v>1.232665639445293E-2</v>
+      </c>
+      <c r="F59" s="16">
+        <f>F58/F57</f>
+        <v>1.6981132075471791E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.2">
+      <c r="F64">
+        <v>5.45E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F65" s="57">
+        <f>F64-F57</f>
+        <v>1.5000000000000013E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F66" s="13">
+        <f>F65/F57</f>
+        <v>2.8301886792452855E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E71">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="F71" s="57">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="G71" s="57">
+        <f>F71-E71</f>
+        <v>2.7999999999999969E-3</v>
+      </c>
+      <c r="H71" s="20">
+        <f>G71/E71</f>
+        <v>8.8050314465408702E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E72">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="F72">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="G72" s="57">
+        <f>F72-E72</f>
+        <v>2.8000000000000039E-3</v>
+      </c>
+      <c r="H72" s="20">
+        <f>G72/E72</f>
+        <v>6.8126520681265304E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="K29:S29"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="K9:P9"/>
-    <mergeCell ref="K18:S18"/>
+  <mergeCells count="7">
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="D48:K48"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{724D8D53-7A34-BB42-8F20-CCA678AFF304}">
-  <dimension ref="D7:L12"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
+  <dimension ref="E8:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="11" max="11" width="99" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="7" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D7" s="46" t="s">
+    <row r="8" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="E8" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="69"/>
+    </row>
+    <row r="9" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="9">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3.27E-2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I10" s="14">
+        <f>(2*F10*H10)/(F10+H10)</f>
+        <v>2.4119658119658122E-2</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="E12" s="10">
+        <v>3</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L12" s="56">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="E13" s="10">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4.53E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3.61E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="I13" s="14">
+        <f>(2*F13*H13)/(F13+H13)</f>
+        <v>2.6572230889235569E-2</v>
+      </c>
+      <c r="J13" s="56">
+        <v>60</v>
+      </c>
+      <c r="K13" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="L13" s="56">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="E15" s="10">
+        <v>4</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="I15" s="14">
+        <f>(2*F15*H15)/(F15+H15)</f>
+        <v>2.5732045088566826E-2</v>
+      </c>
+      <c r="J15" s="56">
+        <v>400</v>
+      </c>
+      <c r="K15" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="L15" s="56">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="G19" s="59">
+        <v>3.1800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="G20" s="59">
+        <f>G13-G19</f>
+        <v>4.2999999999999983E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="G21" s="60">
+        <f>G20/G19</f>
+        <v>0.13522012578616346</v>
+      </c>
+    </row>
+    <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E24" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D8" s="12" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
+    </row>
+    <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F25" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I25" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D9" s="10">
+    <row r="26" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E26" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="9">
-        <v>0.16869999999999999</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0.14169999999999999</v>
-      </c>
-      <c r="G9" s="9">
-        <v>5.1060000000000001E-2</v>
-      </c>
-      <c r="H9" s="9">
-        <f>(2*E9*G9)/(E9+G9)</f>
-        <v>7.839299235529669E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D10" s="10">
+      <c r="F26" s="9">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="G26" s="9">
+        <v>2.98E-2</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="11">
+        <f>(2*F26*H26)/(F26+H26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E27" s="10">
         <v>2</v>
       </c>
-      <c r="E10" s="9">
-        <v>0.17860000000000001</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0.15240000000000001</v>
-      </c>
-      <c r="G10" s="11">
-        <v>5.4559999999999997E-2</v>
-      </c>
-      <c r="H10" s="9">
-        <f>(2*E10*G10)/(E10+G10)</f>
-        <v>8.3585657917309999E-2</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D11" s="10">
+      <c r="F27" s="9">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="G27" s="9">
+        <v>3.15E-2</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11">
+        <f>(2*F27*H27)/(F27+H27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E28" s="10">
         <v>3</v>
       </c>
-      <c r="E11" s="9">
-        <v>0.18240000000000001</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.1547</v>
-      </c>
-      <c r="G11" s="11">
-        <v>5.5890000000000002E-2</v>
-      </c>
-      <c r="H11" s="9">
-        <f>(2*E11*G11)/(E11+G11)</f>
-        <v>8.5562432330353766E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D12" s="10">
+      <c r="F28" s="14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="G28" s="9">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11">
+        <f>(2*F28*H28)/(F28+H28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="E29" s="10">
         <v>4</v>
       </c>
-      <c r="E12" s="9">
-        <v>0.1825</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0.1537</v>
-      </c>
-      <c r="G12" s="9">
-        <v>5.5759999999999997E-2</v>
-      </c>
-      <c r="H12" s="11">
-        <f>(2*E12*G12)/(E12+G12)</f>
-        <v>8.5420968689666754E-2</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>55</v>
+      <c r="F29" s="9">
+        <v>4.0599999999999997E-2</v>
+      </c>
+      <c r="G29" s="9">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="H29" s="9"/>
+      <c r="I29" s="11">
+        <f>(2*F29*H29)/(F29+H29)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D7:H7"/>
+  <mergeCells count="2">
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="E24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9645EE3D-0953-4146-AB32-A8CD72D7280E}">
-  <dimension ref="E10:Q32"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="10" spans="5:16" ht="24" x14ac:dyDescent="0.3">
-      <c r="E10" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
-      <c r="P10" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E11" s="42"/>
-      <c r="F11" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="37">
-        <v>0.16869999999999999</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="37">
-        <v>0.1492</v>
-      </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="37">
-        <v>5.1060000000000001E-2</v>
-      </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="37">
-        <f>(2*F13*J13)/(F13+J13)</f>
-        <v>7.839299235529669E-2</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E14" s="10">
-        <v>2</v>
-      </c>
-      <c r="F14" s="37">
-        <v>0.17860000000000001</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="37">
-        <v>0.15240000000000001</v>
-      </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="38">
-        <v>5.4559999999999997E-2</v>
-      </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="37">
-        <f>(2*F14*J14)/(F14+J14)</f>
-        <v>8.3585657917309999E-2</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="P14" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="10">
-        <v>3</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0.18240000000000001</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="37">
-        <v>0.1547</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="38">
-        <v>5.5890000000000002E-2</v>
-      </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="37">
-        <f>(2*F15*J15)/(F15+J15)</f>
-        <v>8.5562432330353766E-2</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="5:16" ht="22" x14ac:dyDescent="0.3">
-      <c r="E16" s="10">
-        <v>4</v>
-      </c>
-      <c r="F16" s="37">
-        <v>0.1825</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="37">
-        <v>0.1537</v>
-      </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="37">
-        <v>5.5759999999999997E-2</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="38">
-        <f>(2*F16*J16)/(F16+J16)</f>
-        <v>8.5420968689666754E-2</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="18" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E18" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="57"/>
-      <c r="P18" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E19" s="42"/>
-      <c r="F19" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="M19" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="12"/>
-      <c r="H20" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="12"/>
-      <c r="J20" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="P20" s="39">
-        <v>0.01</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="37">
-        <v>0.27592</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.27450000000000002</v>
-      </c>
-      <c r="H21" s="41">
-        <v>0.21309</v>
-      </c>
-      <c r="I21" s="9">
-        <v>0.21310000000000001</v>
-      </c>
-      <c r="J21" s="37">
-        <v>7.7289999999999998E-2</v>
-      </c>
-      <c r="K21" s="9">
-        <v>7.7399999999999997E-2</v>
-      </c>
-      <c r="L21" s="37">
-        <f t="shared" ref="L21:M24" si="0">(2*F21*J21)/(F21+J21)</f>
-        <v>0.12075454715325161</v>
-      </c>
-      <c r="M21" s="11">
-        <f t="shared" si="0"/>
-        <v>0.12075191815856777</v>
-      </c>
-      <c r="N21" s="44">
-        <v>0.01</v>
-      </c>
-      <c r="P21" s="39">
-        <v>1E-3</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E22" s="10">
-        <v>2</v>
-      </c>
-      <c r="F22" s="37">
-        <v>0.27932000000000001</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.27960000000000002</v>
-      </c>
-      <c r="H22" s="37">
-        <v>0.2185</v>
-      </c>
-      <c r="I22" s="9">
-        <v>0.2208</v>
-      </c>
-      <c r="J22" s="38">
-        <v>7.8340000000000007E-2</v>
-      </c>
-      <c r="K22" s="14">
-        <v>7.9200000000000007E-2</v>
-      </c>
-      <c r="L22" s="37">
-        <f t="shared" si="0"/>
-        <v>0.12236162165184812</v>
-      </c>
-      <c r="M22" s="11">
-        <f t="shared" si="0"/>
-        <v>0.12343545150501672</v>
-      </c>
-      <c r="N22" s="44">
-        <v>1E-3</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E23" s="10">
-        <v>3</v>
-      </c>
-      <c r="F23" s="37">
-        <v>0.27900999999999998</v>
-      </c>
-      <c r="G23" s="9">
-        <v>0.2823</v>
-      </c>
-      <c r="H23" s="37">
-        <v>0.21940000000000001</v>
-      </c>
-      <c r="I23" s="14">
-        <v>0.221</v>
-      </c>
-      <c r="J23" s="38">
-        <v>7.8549999999999995E-2</v>
-      </c>
-      <c r="K23" s="14">
-        <v>7.9500000000000001E-2</v>
-      </c>
-      <c r="L23" s="37">
-        <f t="shared" si="0"/>
-        <v>0.12258773632397357</v>
-      </c>
-      <c r="M23" s="11">
-        <f t="shared" si="0"/>
-        <v>0.12406218905472637</v>
-      </c>
-      <c r="N23" s="44">
-        <v>1E-3</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="10">
-        <v>4</v>
-      </c>
-      <c r="F24" s="37">
-        <v>0.27572999999999998</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0.27910000000000001</v>
-      </c>
-      <c r="H24" s="37">
-        <v>0.2162</v>
-      </c>
-      <c r="I24" s="14">
-        <v>0.217</v>
-      </c>
-      <c r="J24" s="37">
-        <v>7.7960000000000002E-2</v>
-      </c>
-      <c r="K24" s="9">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="L24" s="38">
-        <f>(2*F24*J24)/(F24+J24)</f>
-        <v>0.1215522678051401</v>
-      </c>
-      <c r="M24" s="11">
-        <f t="shared" si="0"/>
-        <v>0.1220476483762598</v>
-      </c>
-      <c r="N24" s="44">
-        <v>1E-3</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E26" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="57"/>
-    </row>
-    <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E27" s="42"/>
-      <c r="F27" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="I27" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="M27" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E28" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="12"/>
-      <c r="H28" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="12"/>
-      <c r="L28" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E29" s="10">
-        <v>1</v>
-      </c>
-      <c r="F29" s="37">
-        <v>5.604E-2</v>
-      </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="37">
-        <v>4.5569999999999999E-2</v>
-      </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="37">
-        <v>2.5190000000000001E-2</v>
-      </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="37">
-        <f>(2*F29*J29)/(F29+J29)</f>
-        <v>3.4756804136402808E-2</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E30" s="10">
-        <v>2</v>
-      </c>
-      <c r="F30" s="37">
-        <v>5.9880000000000003E-2</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="37">
-        <v>4.956E-2</v>
-      </c>
-      <c r="I30" s="9"/>
-      <c r="J30" s="38">
-        <v>2.7099999999999999E-2</v>
-      </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="37">
-        <f>(2*F30*J30)/(F30+J30)</f>
-        <v>3.7313129455047139E-2</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E31" s="10">
-        <v>3</v>
-      </c>
-      <c r="F31" s="37">
-        <v>6.3469999999999999E-2</v>
-      </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="37">
-        <v>5.2380000000000003E-2</v>
-      </c>
-      <c r="I31" s="9"/>
-      <c r="J31" s="38">
-        <v>2.8500000000000001E-2</v>
-      </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="37">
-        <f>(2*F31*J31)/(F31+J31)</f>
-        <v>3.933663151027509E-2</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="5:17" ht="22" x14ac:dyDescent="0.3">
-      <c r="E32" s="10">
-        <v>4</v>
-      </c>
-      <c r="F32" s="37">
-        <v>6.515E-2</v>
-      </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="37">
-        <v>5.3249999999999999E-2</v>
-      </c>
-      <c r="I32" s="9"/>
-      <c r="J32" s="37">
-        <v>2.9170000000000001E-2</v>
-      </c>
-      <c r="K32" s="9"/>
-      <c r="L32" s="38">
-        <f>(2*F32*J32)/(F32+J32)</f>
-        <v>4.0297402459711619E-2</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="E10:N10"/>
-    <mergeCell ref="E26:N26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/exp/Sim_20241026.xlsx
+++ b/exp/Sim_20241026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC0E07-E5AE-1343-83C4-40E69B911B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BFCA3C-633F-6C43-8AE1-3FCB3352FA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="3800" windowWidth="30100" windowHeight="13180" activeTab="4" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="1780" yWindow="8360" windowWidth="30900" windowHeight="12060" activeTab="4" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="yelp2018" sheetId="2" r:id="rId5"/>
     <sheet name="amazon-book" sheetId="8" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">'amazon-book'!$G$10:$G$13</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="84">
   <si>
     <t>Paper value</t>
   </si>
@@ -284,6 +281,18 @@
   </si>
   <si>
     <t>hyperGCN (u-60, i-18, no-shuffle)</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>#epochs</t>
+  </si>
+  <si>
+    <t>ncdg</t>
+  </si>
+  <si>
+    <t>0.0532, 0.0645, 0.0292 at 110</t>
   </si>
 </sst>
 </file>
@@ -536,7 +545,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -680,6 +689,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4172,10 +4184,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
-  <dimension ref="D9:AA72"/>
+  <dimension ref="D9:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4185,7 +4197,8 @@
     <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
@@ -5251,19 +5264,19 @@
         <v>5.45E-2</v>
       </c>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F65" s="57">
         <f>F64-F57</f>
         <v>1.5000000000000013E-3</v>
       </c>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:12" x14ac:dyDescent="0.2">
       <c r="F66" s="13">
         <f>F65/F57</f>
         <v>2.8301886792452855E-2</v>
       </c>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E71">
         <v>3.1800000000000002E-2</v>
       </c>
@@ -5279,7 +5292,7 @@
         <v>8.8050314465408702E-2</v>
       </c>
     </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:12" x14ac:dyDescent="0.2">
       <c r="E72">
         <v>4.1099999999999998E-2</v>
       </c>
@@ -5295,8 +5308,168 @@
         <v>6.8126520681265304E-2</v>
       </c>
     </row>
+    <row r="76" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D76" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="68"/>
+      <c r="F76" s="68"/>
+      <c r="G76" s="68"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="68"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="69"/>
+    </row>
+    <row r="77" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D77" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K77" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L77" s="76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D78" s="10">
+        <v>1</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="J78" s="43"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D79" s="10">
+        <v>2</v>
+      </c>
+      <c r="E79" s="9">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="F79" s="9">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="G79" s="9">
+        <v>2.87E-2</v>
+      </c>
+      <c r="H79" s="14">
+        <f>(2*F79*G79)/(F79+G79)</f>
+        <v>3.9590486486486484E-2</v>
+      </c>
+      <c r="I79" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="J79" s="9">
+        <v>100</v>
+      </c>
+      <c r="K79" s="9">
+        <v>201</v>
+      </c>
+      <c r="L79" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="80" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D80" s="10">
+        <v>3</v>
+      </c>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="J80" s="43"/>
+      <c r="K80" s="56"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D81" s="10">
+        <v>4</v>
+      </c>
+      <c r="E81" s="9">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="F81" s="9">
+        <v>6.4500000000000002E-2</v>
+      </c>
+      <c r="G81" s="9">
+        <v>2.92E-2</v>
+      </c>
+      <c r="H81" s="14">
+        <f>(2*F81*G81)/(F81+G81)</f>
+        <v>4.0200640341515478E-2</v>
+      </c>
+      <c r="I81" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="J81" s="9">
+        <v>310</v>
+      </c>
+      <c r="K81" s="56">
+        <v>401</v>
+      </c>
+      <c r="L81" s="9">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="82" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D82" s="10">
+        <v>4</v>
+      </c>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="14" t="e">
+        <f>(2*F82*G82)/(F82+G82)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="J82" s="9"/>
+      <c r="K82" s="56">
+        <v>200</v>
+      </c>
+      <c r="L82" s="9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="86" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="I86" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="D76:L76"/>
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="D48:K48"/>
     <mergeCell ref="D9:H9"/>

--- a/exp/Sim_20241026.xlsx
+++ b/exp/Sim_20241026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BFCA3C-633F-6C43-8AE1-3FCB3352FA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB077C5-218F-924D-A80B-4DDEADD23BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="8360" windowWidth="30900" windowHeight="12060" activeTab="4" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="1780" yWindow="1640" windowWidth="30900" windowHeight="18780" activeTab="5" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -545,7 +545,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -689,9 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1618,16 +1615,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1974,7 +1971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4227896D-BE1A-B249-BC5D-D805EF240247}">
   <dimension ref="D4:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="E33" sqref="E31:E33"/>
     </sheetView>
   </sheetViews>
@@ -2746,7 +2743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9645EE3D-0953-4146-AB32-A8CD72D7280E}">
   <dimension ref="E10:R32"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -3334,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82757750-2341-5941-B5A9-350C8E89CB41}">
   <dimension ref="E5:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4186,7 +4183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
   <dimension ref="D9:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+    <sheetView topLeftCell="A60" workbookViewId="0">
       <selection activeCell="K60" sqref="K60"/>
     </sheetView>
   </sheetViews>
@@ -5346,7 +5343,7 @@
       <c r="K77" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="L77" s="76" t="s">
+      <c r="L77" s="12" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5486,8 +5483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
   <dimension ref="E8:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/exp/Sim_20241026.xlsx
+++ b/exp/Sim_20241026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB077C5-218F-924D-A80B-4DDEADD23BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33834F-49AA-B741-94F3-4CF3164720B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1640" windowWidth="30900" windowHeight="18780" activeTab="5" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="1780" yWindow="1640" windowWidth="30900" windowHeight="18780" activeTab="4" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
   <si>
     <t>Paper value</t>
   </si>
@@ -4181,10 +4181,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
-  <dimension ref="D9:AA86"/>
+  <dimension ref="D9:AA96"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5464,8 +5464,126 @@
         <v>83</v>
       </c>
     </row>
+    <row r="91" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D91" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="E91" s="68"/>
+      <c r="F91" s="68"/>
+      <c r="G91" s="68"/>
+      <c r="H91" s="68"/>
+      <c r="I91" s="68"/>
+      <c r="J91" s="68"/>
+      <c r="K91" s="68"/>
+      <c r="L91" s="69"/>
+    </row>
+    <row r="92" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D92" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J92" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L92" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D93" s="10">
+        <v>1</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="J93" s="43"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D94" s="10">
+        <v>2</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+    </row>
+    <row r="95" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D95" s="10">
+        <v>3</v>
+      </c>
+      <c r="E95" s="9">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="F95" s="9">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="G95" s="9">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="H95" s="14">
+        <f>(2*F95*G95)/(F95+G95)</f>
+        <v>4.064029535864979E-2</v>
+      </c>
+      <c r="I95" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="J95" s="56">
+        <v>320</v>
+      </c>
+      <c r="K95" s="56">
+        <v>400</v>
+      </c>
+      <c r="L95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="4:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="D96" s="10">
+        <v>4</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="J96" s="9"/>
+      <c r="K96" s="56"/>
+      <c r="L96" s="9"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="D91:L91"/>
     <mergeCell ref="D76:L76"/>
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="D48:K48"/>
@@ -5483,7 +5601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
   <dimension ref="E8:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>

--- a/exp/Sim_20241026.xlsx
+++ b/exp/Sim_20241026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tseesurenb/Desktop/Research/Models/hyperGCN_v4/exp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E33834F-49AA-B741-94F3-4CF3164720B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0432D9-9404-D04B-8FDA-98E9EF4420FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="1640" windowWidth="30900" windowHeight="18780" activeTab="4" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
+    <workbookView xWindow="42380" yWindow="2300" windowWidth="29660" windowHeight="14860" activeTab="2" xr2:uid="{D0095FC4-FA18-1D49-A5ED-7FF08BBF57F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
   <si>
     <t>Paper value</t>
   </si>
@@ -293,6 +293,33 @@
   </si>
   <si>
     <t>0.0532, 0.0645, 0.0292 at 110</t>
+  </si>
+  <si>
+    <t>i_sim</t>
+  </si>
+  <si>
+    <t>u_sim</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>python main.py --layers=2 --batch_size=1024 --model=hyperGAT --epochs=201 --dataset=amazon_book --decay=1e-05 --verbose=1 --i_K=18 --u_K=40 --u_sim=mix+ --i_sim=mix+</t>
+  </si>
+  <si>
+    <t>u_k</t>
+  </si>
+  <si>
+    <t>i_k</t>
+  </si>
+  <si>
+    <t>cos</t>
+  </si>
+  <si>
+    <t>LightGCN-replica, lambda, 2024-12-12</t>
+  </si>
+  <si>
+    <t>hyperGAT</t>
   </si>
 </sst>
 </file>
@@ -545,7 +572,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -645,6 +672,9 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,6 +720,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2743,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9645EE3D-0953-4146-AB32-A8CD72D7280E}">
   <dimension ref="E10:R32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -2759,18 +2800,18 @@
   </cols>
   <sheetData>
     <row r="10" spans="5:17" ht="24" x14ac:dyDescent="0.3">
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="63"/>
+      <c r="N10" s="64"/>
       <c r="Q10" s="6" t="s">
         <v>65</v>
       </c>
@@ -2933,18 +2974,18 @@
       <c r="N16" s="2"/>
     </row>
     <row r="18" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E18" s="61" t="s">
+      <c r="E18" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="64"/>
       <c r="Q18" s="6" t="s">
         <v>58</v>
       </c>
@@ -3162,18 +3203,18 @@
       </c>
     </row>
     <row r="26" spans="5:18" ht="24" x14ac:dyDescent="0.3">
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="64"/>
     </row>
     <row r="27" spans="5:18" ht="22" x14ac:dyDescent="0.3">
       <c r="E27" s="41"/>
@@ -3329,10 +3370,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82757750-2341-5941-B5A9-350C8E89CB41}">
-  <dimension ref="E5:O22"/>
+  <dimension ref="E5:Q51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3344,17 +3385,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E5" s="65" t="s">
+      <c r="E5" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E6" s="46"/>
@@ -3362,12 +3403,12 @@
       <c r="G6" s="46"/>
       <c r="H6" s="46"/>
       <c r="I6" s="46"/>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
     </row>
     <row r="7" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E7" s="47" t="s">
@@ -3519,17 +3560,17 @@
       </c>
     </row>
     <row r="15" spans="5:13" ht="22" x14ac:dyDescent="0.3">
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="66"/>
     </row>
     <row r="16" spans="5:13" ht="22" x14ac:dyDescent="0.3">
       <c r="E16" s="46"/>
@@ -3537,14 +3578,14 @@
       <c r="G16" s="46"/>
       <c r="H16" s="46"/>
       <c r="I16" s="46"/>
-      <c r="J16" s="64" t="s">
+      <c r="J16" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-    </row>
-    <row r="17" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+    </row>
+    <row r="17" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E17" s="47" t="s">
         <v>7</v>
       </c>
@@ -3573,7 +3614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E18" s="43">
         <v>1E-3</v>
       </c>
@@ -3597,7 +3638,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E19" s="43">
         <v>1E-4</v>
       </c>
@@ -3621,7 +3662,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E20" s="43">
         <v>1.0000000000000001E-5</v>
       </c>
@@ -3645,7 +3686,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E21" s="43">
         <v>1E-3</v>
       </c>
@@ -3678,7 +3719,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="5:15" ht="22" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:17" ht="22" x14ac:dyDescent="0.3">
       <c r="E22" s="43">
         <v>1E-4</v>
       </c>
@@ -3697,8 +3738,493 @@
       <c r="L22" s="14"/>
       <c r="M22" s="9"/>
     </row>
+    <row r="27" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E27" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+    </row>
+    <row r="28" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E28" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K28" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M28" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="N28" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="O28" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q28" s="47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E29" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="9">
+        <v>770</v>
+      </c>
+      <c r="J29" s="14"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="14" t="e">
+        <f>(2*J29*K29)/(J29+K29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="9">
+        <v>0.12889999999999999</v>
+      </c>
+      <c r="N29" s="14">
+        <v>20</v>
+      </c>
+      <c r="O29" s="9">
+        <v>45</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E30" s="43"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E31" s="43"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E32" s="43"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E33" s="43"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="37" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E37" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+    </row>
+    <row r="38" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E38" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="78"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="79"/>
+    </row>
+    <row r="39" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E39" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H39" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E40" s="43">
+        <v>1E-3</v>
+      </c>
+      <c r="F40" s="9">
+        <v>2</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H40" s="9">
+        <v>400</v>
+      </c>
+      <c r="I40" s="9">
+        <v>340</v>
+      </c>
+      <c r="J40" s="14">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="K40" s="9">
+        <v>5.28E-2</v>
+      </c>
+      <c r="L40" s="14">
+        <f>(2*J40*K40)/(J40+K40)</f>
+        <v>8.0596950672645745E-2</v>
+      </c>
+      <c r="M40" s="14">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E41" s="43">
+        <v>1E-4</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H41" s="9">
+        <v>400</v>
+      </c>
+      <c r="I41" s="9">
+        <v>220</v>
+      </c>
+      <c r="J41" s="9">
+        <v>0.17169999999999999</v>
+      </c>
+      <c r="K41" s="9">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="L41" s="14">
+        <f>(2*J41*K41)/(J41+K41)</f>
+        <v>8.0880943900267135E-2</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0.1472</v>
+      </c>
+    </row>
+    <row r="42" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E42" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F42" s="9">
+        <v>2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1024</v>
+      </c>
+      <c r="H42" s="9">
+        <v>400</v>
+      </c>
+      <c r="I42" s="9">
+        <v>100</v>
+      </c>
+      <c r="J42" s="9">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="K42" s="9">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="L42" s="14">
+        <f>(2*J42*K42)/(J42+K42)</f>
+        <v>7.2622691552062871E-2</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.14430000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E43" s="43"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="9"/>
+    </row>
+    <row r="44" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E44" s="43"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="9"/>
+    </row>
+    <row r="47" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E47" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
+      <c r="M47" s="66"/>
+      <c r="N47" s="66"/>
+      <c r="O47" s="66"/>
+    </row>
+    <row r="48" spans="5:17" ht="22" x14ac:dyDescent="0.3">
+      <c r="E48" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="H48" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="J48" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M48" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="N48" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="O48" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="5:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="E49" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1024</v>
+      </c>
+      <c r="H49" s="1">
+        <v>20</v>
+      </c>
+      <c r="I49" s="1">
+        <v>20</v>
+      </c>
+      <c r="J49" s="1">
+        <v>0.1024</v>
+      </c>
+      <c r="K49" s="1">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="L49" s="7">
+        <f>(2*J49*K49)/(J49+K49)</f>
+        <v>4.8877918215613374E-2</v>
+      </c>
+      <c r="M49" s="1">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="N49" s="1">
+        <v>40</v>
+      </c>
+      <c r="O49" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="5:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="E50" s="80">
+        <v>1E-4</v>
+      </c>
+      <c r="F50" s="81">
+        <v>2</v>
+      </c>
+      <c r="G50" s="81">
+        <v>1024</v>
+      </c>
+      <c r="H50" s="81">
+        <v>20</v>
+      </c>
+      <c r="I50" s="81">
+        <v>20</v>
+      </c>
+      <c r="J50" s="81">
+        <v>0.10249999999999999</v>
+      </c>
+      <c r="K50" s="81">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="L50" s="7">
+        <f>(2*J50*K50)/(J50+K50)</f>
+        <v>4.9005196733481811E-2</v>
+      </c>
+      <c r="M50" s="81">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="N50" s="81">
+        <v>20</v>
+      </c>
+      <c r="O50" s="81">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="5:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="E51" s="80">
+        <v>1E-3</v>
+      </c>
+      <c r="F51" s="81">
+        <v>2</v>
+      </c>
+      <c r="G51" s="81">
+        <v>1024</v>
+      </c>
+      <c r="H51" s="81">
+        <v>30</v>
+      </c>
+      <c r="I51" s="81">
+        <v>30</v>
+      </c>
+      <c r="J51" s="81">
+        <v>0.1003</v>
+      </c>
+      <c r="K51" s="81">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="L51" s="7">
+        <f>(2*J51*K51)/(J51+K51)</f>
+        <v>4.8058832448824862E-2</v>
+      </c>
+      <c r="M51" s="81">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="N51" s="81">
+        <v>40</v>
+      </c>
+      <c r="O51" s="81">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="E37:M37"/>
+    <mergeCell ref="E38:M38"/>
+    <mergeCell ref="E47:O47"/>
+    <mergeCell ref="E27:Q27"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="E5:M5"/>
     <mergeCell ref="E15:M15"/>
@@ -3738,56 +4264,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:28" ht="27" x14ac:dyDescent="0.35">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
     </row>
     <row r="4" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C4" s="74" t="s">
+      <c r="C4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="75"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
-      <c r="P4" s="74"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="75"/>
+      <c r="P4" s="75"/>
       <c r="Q4" s="4"/>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="75" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="74"/>
-      <c r="T4" s="74"/>
-      <c r="U4" s="74"/>
+      <c r="S4" s="75"/>
+      <c r="T4" s="75"/>
+      <c r="U4" s="75"/>
     </row>
     <row r="5" spans="3:28" ht="19" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -3847,16 +4373,16 @@
       </c>
     </row>
     <row r="6" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C6" s="71">
+      <c r="C6" s="72">
         <v>1000</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="76">
         <v>1</v>
       </c>
       <c r="E6" s="3">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="75">
+      <c r="F6" s="76">
         <v>0.1492</v>
       </c>
       <c r="G6" s="7">
@@ -3869,7 +4395,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="75">
+      <c r="M6" s="76">
         <v>0.17549999999999999</v>
       </c>
       <c r="N6" s="1">
@@ -3878,7 +4404,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="75">
+      <c r="R6" s="76">
         <v>0.17549999999999999</v>
       </c>
       <c r="S6" s="1"/>
@@ -3886,12 +4412,12 @@
       <c r="U6" s="1"/>
     </row>
     <row r="7" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C7" s="72"/>
-      <c r="D7" s="75"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="75"/>
+      <c r="F7" s="76"/>
       <c r="G7" s="7">
         <v>0.14838999999999999</v>
       </c>
@@ -3906,7 +4432,7 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="75"/>
+      <c r="M7" s="76"/>
       <c r="N7" s="7">
         <v>0.17444000000000001</v>
       </c>
@@ -3915,7 +4441,7 @@
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="75"/>
+      <c r="R7" s="76"/>
       <c r="S7" s="7"/>
       <c r="T7" s="7">
         <v>5.3499999999999999E-2</v>
@@ -3926,7 +4452,7 @@
       </c>
     </row>
     <row r="8" spans="3:28" ht="19" x14ac:dyDescent="0.25">
-      <c r="C8" s="73"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="33">
         <v>2</v>
       </c>
@@ -3968,13 +4494,13 @@
       </c>
     </row>
     <row r="13" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="X13" s="67" t="s">
+      <c r="X13" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="69"/>
+      <c r="Y13" s="69"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="69"/>
+      <c r="AB13" s="70"/>
     </row>
     <row r="14" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="X14" s="12" t="s">
@@ -4036,13 +4562,13 @@
       </c>
     </row>
     <row r="18" spans="3:28" ht="22" x14ac:dyDescent="0.3">
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
       <c r="X18" s="10">
         <v>4</v>
       </c>
@@ -4106,19 +4632,19 @@
         <f>(2*D21*F21)/(D21+F21)</f>
         <v>8.3585657917309999E-2</v>
       </c>
-      <c r="J21" s="70" t="s">
+      <c r="J21" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
     </row>
     <row r="22" spans="3:28" ht="22" x14ac:dyDescent="0.3">
       <c r="C22" s="10">
@@ -4183,8 +4709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0477E06-3D45-A64E-87BA-6F97965D4B2A}">
   <dimension ref="D9:AA96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="O96" sqref="O96"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4201,21 +4727,21 @@
   </cols>
   <sheetData>
     <row r="9" spans="4:24" ht="22" x14ac:dyDescent="0.3">
-      <c r="D9" s="67" t="s">
+      <c r="D9" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
-      <c r="N9" s="67" t="s">
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="N9" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="70"/>
     </row>
     <row r="10" spans="4:24" ht="22" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
@@ -4391,26 +4917,26 @@
       <c r="S14" s="2"/>
     </row>
     <row r="18" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D18" s="67" t="s">
+      <c r="D18" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="N18" s="67" t="s">
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
+      <c r="N18" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="70"/>
     </row>
     <row r="19" spans="4:27" ht="22" x14ac:dyDescent="0.3">
       <c r="D19" s="12" t="s">
@@ -4779,15 +5305,15 @@
       </c>
     </row>
     <row r="29" spans="4:27" ht="22" x14ac:dyDescent="0.3">
-      <c r="D29" s="67" t="s">
+      <c r="D29" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="70"/>
       <c r="N29" s="51" t="s">
         <v>24</v>
       </c>
@@ -4991,16 +5517,16 @@
       <c r="V36" s="17"/>
     </row>
     <row r="37" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D37" s="67" t="s">
+      <c r="D37" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="70"/>
       <c r="N37" s="19"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
@@ -5118,16 +5644,16 @@
       <c r="K42" s="2"/>
     </row>
     <row r="48" spans="4:22" ht="22" x14ac:dyDescent="0.3">
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="69"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="70"/>
     </row>
     <row r="49" spans="4:11" ht="22" x14ac:dyDescent="0.3">
       <c r="D49" s="12" t="s">
@@ -5306,17 +5832,17 @@
       </c>
     </row>
     <row r="76" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D76" s="67" t="s">
+      <c r="D76" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="69"/>
+      <c r="E76" s="69"/>
+      <c r="F76" s="69"/>
+      <c r="G76" s="69"/>
+      <c r="H76" s="69"/>
+      <c r="I76" s="69"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="69"/>
+      <c r="L76" s="70"/>
     </row>
     <row r="77" spans="4:12" ht="22" x14ac:dyDescent="0.3">
       <c r="D77" s="12" t="s">
@@ -5465,17 +5991,17 @@
       </c>
     </row>
     <row r="91" spans="4:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="D91" s="67" t="s">
+      <c r="D91" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="E91" s="68"/>
-      <c r="F91" s="68"/>
-      <c r="G91" s="68"/>
-      <c r="H91" s="68"/>
-      <c r="I91" s="68"/>
-      <c r="J91" s="68"/>
-      <c r="K91" s="68"/>
-      <c r="L91" s="69"/>
+      <c r="E91" s="69"/>
+      <c r="F91" s="69"/>
+      <c r="G91" s="69"/>
+      <c r="H91" s="69"/>
+      <c r="I91" s="69"/>
+      <c r="J91" s="69"/>
+      <c r="K91" s="69"/>
+      <c r="L91" s="70"/>
     </row>
     <row r="92" spans="4:12" ht="22" x14ac:dyDescent="0.3">
       <c r="D92" s="12" t="s">
@@ -5570,28 +6096,43 @@
       <c r="D96" s="10">
         <v>4</v>
       </c>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="14"/>
+      <c r="E96" s="14">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F96" s="9">
+        <v>6.5600000000000006E-2</v>
+      </c>
+      <c r="G96" s="9">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="H96" s="14">
+        <f>(2*F96*G96)/(F96+G96)</f>
+        <v>4.0793277310924372E-2</v>
+      </c>
       <c r="I96" s="43">
         <v>1E-4</v>
       </c>
-      <c r="J96" s="9"/>
-      <c r="K96" s="56"/>
-      <c r="L96" s="9"/>
+      <c r="J96" s="9">
+        <v>350</v>
+      </c>
+      <c r="K96" s="56">
+        <v>400</v>
+      </c>
+      <c r="L96" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="N9:S9"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D29:J29"/>
     <mergeCell ref="D91:L91"/>
     <mergeCell ref="D76:L76"/>
     <mergeCell ref="D37:K37"/>
     <mergeCell ref="D48:K48"/>
     <mergeCell ref="D9:H9"/>
-    <mergeCell ref="N9:S9"/>
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D29:J29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5599,27 +6140,58 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40676F58-3295-4B44-9129-9CAFD6F49D33}">
-  <dimension ref="E8:L29"/>
+  <dimension ref="E6:T48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="8" spans="5:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="E8" s="67" t="s">
+    <row r="6" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>2.718</v>
+      </c>
+      <c r="Q6">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <f>SUM(P6:S6)</f>
+        <v>6.7519999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="5:20" x14ac:dyDescent="0.2">
+      <c r="T7" s="20">
+        <f>S6/T6</f>
+        <v>0.1481042654028436</v>
+      </c>
+    </row>
+    <row r="8" spans="5:20" ht="22" x14ac:dyDescent="0.3">
+      <c r="E8" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
-    </row>
-    <row r="9" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
+      <c r="T8" s="20">
+        <f>P6/T6</f>
+        <v>0.4025473933649289</v>
+      </c>
+    </row>
+    <row r="9" spans="5:20" ht="22" x14ac:dyDescent="0.3">
       <c r="E9" s="12" t="s">
         <v>6</v>
       </c>
@@ -5644,8 +6216,12 @@
       <c r="L9" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="10" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="T9" s="20">
+        <f>Q6/T6</f>
+        <v>0.30124407582938389</v>
+      </c>
+    </row>
+    <row r="10" spans="5:20" ht="22" x14ac:dyDescent="0.3">
       <c r="E10" s="10">
         <v>1</v>
       </c>
@@ -5668,7 +6244,7 @@
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:20" ht="22" x14ac:dyDescent="0.3">
       <c r="E11" s="10">
         <v>2</v>
       </c>
@@ -5684,7 +6260,7 @@
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:20" ht="22" x14ac:dyDescent="0.3">
       <c r="E12" s="10">
         <v>3</v>
       </c>
@@ -5702,7 +6278,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="13" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:20" ht="22" x14ac:dyDescent="0.3">
       <c r="E13" s="10">
         <v>4</v>
       </c>
@@ -5729,7 +6305,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="5:12" ht="22" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:20" ht="22" x14ac:dyDescent="0.3">
       <c r="E15" s="10">
         <v>4</v>
       </c>
@@ -5774,13 +6350,13 @@
       </c>
     </row>
     <row r="24" spans="5:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="E24" s="67" t="s">
+      <c r="E24" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
     </row>
     <row r="25" spans="5:9" ht="22" x14ac:dyDescent="0.3">
       <c r="E25" s="12" t="s">
@@ -5863,11 +6439,433 @@
         <v>0</v>
       </c>
     </row>
+    <row r="36" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E36" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="70"/>
+    </row>
+    <row r="37" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E37" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E39" s="10">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9">
+        <v>4.48E-2</v>
+      </c>
+      <c r="G39" s="9">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H39" s="9">
+        <f t="shared" ref="H39:H44" si="0">(2*F39*G39)/(F39+G39)</f>
+        <v>2.6086075949367085E-2</v>
+      </c>
+      <c r="I39" s="14">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="J39" s="9">
+        <v>110</v>
+      </c>
+      <c r="K39" s="9">
+        <v>200</v>
+      </c>
+      <c r="L39" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M39" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N39" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="O39" s="9">
+        <v>18</v>
+      </c>
+      <c r="P39" s="9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E40" s="10">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9">
+        <v>4.48E-2</v>
+      </c>
+      <c r="G40" s="9">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H40" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6086075949367085E-2</v>
+      </c>
+      <c r="I40" s="14">
+        <v>3.56E-2</v>
+      </c>
+      <c r="J40" s="9">
+        <v>130</v>
+      </c>
+      <c r="K40" s="9">
+        <v>200</v>
+      </c>
+      <c r="L40" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M40" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N40" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="O40" s="9">
+        <v>18</v>
+      </c>
+      <c r="P40" s="9">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E41" s="10">
+        <v>2</v>
+      </c>
+      <c r="F41" s="9">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="G41" s="9">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="H41" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5834130781499199E-2</v>
+      </c>
+      <c r="I41" s="14">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="J41" s="56">
+        <v>130</v>
+      </c>
+      <c r="K41" s="9">
+        <v>160</v>
+      </c>
+      <c r="L41" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M41" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N41" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="O41" s="9">
+        <v>18</v>
+      </c>
+      <c r="P41" s="9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E42" s="10">
+        <v>2</v>
+      </c>
+      <c r="F42" s="9">
+        <v>4.41E-2</v>
+      </c>
+      <c r="G42" s="9">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="H42" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5665916398713826E-2</v>
+      </c>
+      <c r="I42" s="9">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="J42" s="56">
+        <v>100</v>
+      </c>
+      <c r="K42" s="9">
+        <v>140</v>
+      </c>
+      <c r="L42" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M42" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N42" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="O42" s="9">
+        <v>15</v>
+      </c>
+      <c r="P42" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E43" s="10">
+        <v>3</v>
+      </c>
+      <c r="F43" s="9">
+        <v>4.5100000000000001E-2</v>
+      </c>
+      <c r="G43" s="14">
+        <v>1.8599999999999998E-2</v>
+      </c>
+      <c r="H43" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6337833594976448E-2</v>
+      </c>
+      <c r="I43" s="14">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="J43" s="56">
+        <v>130</v>
+      </c>
+      <c r="K43" s="9">
+        <v>250</v>
+      </c>
+      <c r="L43" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M43" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N43" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="O43" s="9">
+        <v>18</v>
+      </c>
+      <c r="P43" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E44" s="10">
+        <v>4</v>
+      </c>
+      <c r="F44" s="9">
+        <v>4.48E-2</v>
+      </c>
+      <c r="G44" s="9">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="H44" s="9">
+        <f t="shared" si="0"/>
+        <v>2.6186413902053715E-2</v>
+      </c>
+      <c r="I44" s="14">
+        <v>3.5299999999999998E-2</v>
+      </c>
+      <c r="J44" s="56">
+        <v>230</v>
+      </c>
+      <c r="K44" s="9">
+        <v>310</v>
+      </c>
+      <c r="L44" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M44" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N44" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="O44" s="61">
+        <v>25</v>
+      </c>
+      <c r="P44" s="61">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E46" s="10">
+        <v>2</v>
+      </c>
+      <c r="F46" s="9">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="G46" s="9">
+        <v>1.83E-2</v>
+      </c>
+      <c r="H46" s="9">
+        <f>(2*F46*G46)/(F46+G46)</f>
+        <v>2.59516693163752E-2</v>
+      </c>
+      <c r="I46" s="14">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="J46" s="9">
+        <v>120</v>
+      </c>
+      <c r="K46" s="9">
+        <v>200</v>
+      </c>
+      <c r="L46" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M46" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N46" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="O46" s="9">
+        <v>18</v>
+      </c>
+      <c r="P46" s="9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="5:18" ht="22" x14ac:dyDescent="0.3">
+      <c r="E48" s="10">
+        <v>4</v>
+      </c>
+      <c r="F48" s="9">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="G48" s="9">
+        <v>1.84E-2</v>
+      </c>
+      <c r="H48" s="9">
+        <f t="shared" ref="H48" si="1">(2*F48*G48)/(F48+G48)</f>
+        <v>2.6034976152623211E-2</v>
+      </c>
+      <c r="I48" s="14">
+        <v>3.5499999999999997E-2</v>
+      </c>
+      <c r="J48" s="56">
+        <v>160</v>
+      </c>
+      <c r="K48" s="9">
+        <v>250</v>
+      </c>
+      <c r="L48" s="43">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="M48" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="N48" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="O48" s="61">
+        <v>18</v>
+      </c>
+      <c r="P48" s="61">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E8:L8"/>
     <mergeCell ref="E24:I24"/>
+    <mergeCell ref="E36:P36"/>
   </mergeCells>
+  <conditionalFormatting sqref="I39:I44">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
